--- a/src/features/excel/products.xlsx
+++ b/src/features/excel/products.xlsx
@@ -2037,10 +2037,7 @@
       <c r="E1" s="3">
         <v>41.954</v>
       </c>
-      <c r="F1" s="3">
-        <f t="shared" ref="F1:F527" si="1">E1*1.2</f>
-        <v>50.3448</v>
-      </c>
+      <c r="F1" s="3"/>
       <c r="G1" s="2">
         <v>11.0</v>
       </c>
@@ -2070,10 +2067,7 @@
       <c r="E2" s="3">
         <v>26.365</v>
       </c>
-      <c r="F2" s="3">
-        <f t="shared" si="1"/>
-        <v>31.638</v>
-      </c>
+      <c r="F2" s="3"/>
       <c r="G2" s="2">
         <v>8.0</v>
       </c>
@@ -2095,10 +2089,7 @@
       <c r="E3" s="3">
         <v>583.34</v>
       </c>
-      <c r="F3" s="3">
-        <f t="shared" si="1"/>
-        <v>700.008</v>
-      </c>
+      <c r="F3" s="3"/>
       <c r="G3" s="2">
         <v>77.0</v>
       </c>
@@ -2120,10 +2111,7 @@
       <c r="E4" s="3">
         <v>583.34</v>
       </c>
-      <c r="F4" s="3">
-        <f t="shared" si="1"/>
-        <v>700.008</v>
-      </c>
+      <c r="F4" s="3"/>
       <c r="G4" s="2">
         <v>16.0</v>
       </c>
@@ -2147,10 +2135,7 @@
       <c r="E5" s="3">
         <v>32.637</v>
       </c>
-      <c r="F5" s="3">
-        <f t="shared" si="1"/>
-        <v>39.1644</v>
-      </c>
+      <c r="F5" s="3"/>
       <c r="G5" s="2">
         <v>73.0</v>
       </c>
@@ -2172,10 +2157,7 @@
       <c r="E6" s="3">
         <v>583.34</v>
       </c>
-      <c r="F6" s="3">
-        <f t="shared" si="1"/>
-        <v>700.008</v>
-      </c>
+      <c r="F6" s="3"/>
       <c r="G6" s="2">
         <v>44.0</v>
       </c>
@@ -2197,10 +2179,7 @@
       <c r="E7" s="3">
         <v>583.34</v>
       </c>
-      <c r="F7" s="3">
-        <f t="shared" si="1"/>
-        <v>700.008</v>
-      </c>
+      <c r="F7" s="3"/>
       <c r="G7" s="2">
         <v>75.0</v>
       </c>
@@ -2224,10 +2203,7 @@
       <c r="E8" s="3">
         <v>34.958</v>
       </c>
-      <c r="F8" s="3">
-        <f t="shared" si="1"/>
-        <v>41.9496</v>
-      </c>
+      <c r="F8" s="3"/>
       <c r="G8" s="2">
         <v>92.0</v>
       </c>
@@ -2249,10 +2225,7 @@
       <c r="E9" s="3">
         <v>583.34</v>
       </c>
-      <c r="F9" s="3">
-        <f t="shared" si="1"/>
-        <v>700.008</v>
-      </c>
+      <c r="F9" s="3"/>
       <c r="G9" s="2">
         <v>28.0</v>
       </c>
@@ -2274,10 +2247,7 @@
       <c r="E10" s="3">
         <v>583.34</v>
       </c>
-      <c r="F10" s="3">
-        <f t="shared" si="1"/>
-        <v>700.008</v>
-      </c>
+      <c r="F10" s="3"/>
       <c r="G10" s="2">
         <v>19.0</v>
       </c>
@@ -2299,10 +2269,7 @@
       <c r="E11" s="3">
         <v>40.55084</v>
       </c>
-      <c r="F11" s="3">
-        <f t="shared" si="1"/>
-        <v>48.661008</v>
-      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="2">
         <v>10.0</v>
       </c>
@@ -2326,10 +2293,7 @@
       <c r="E12" s="3">
         <v>396.0</v>
       </c>
-      <c r="F12" s="3">
-        <f t="shared" si="1"/>
-        <v>475.2</v>
-      </c>
+      <c r="F12" s="3"/>
       <c r="G12" s="2">
         <v>16.0</v>
       </c>
@@ -2351,10 +2315,7 @@
       <c r="E13" s="3">
         <v>54.956</v>
       </c>
-      <c r="F13" s="3">
-        <f t="shared" si="1"/>
-        <v>65.9472</v>
-      </c>
+      <c r="F13" s="3"/>
       <c r="G13" s="2">
         <v>101.0</v>
       </c>
@@ -2376,10 +2337,7 @@
       <c r="E14" s="3">
         <v>97.0</v>
       </c>
-      <c r="F14" s="3">
-        <f t="shared" si="1"/>
-        <v>116.4</v>
-      </c>
+      <c r="F14" s="3"/>
       <c r="G14" s="2">
         <v>16.0</v>
       </c>
@@ -2401,10 +2359,7 @@
       <c r="E15" s="3">
         <v>3200.574</v>
       </c>
-      <c r="F15" s="3">
-        <f t="shared" si="1"/>
-        <v>3840.6888</v>
-      </c>
+      <c r="F15" s="3"/>
       <c r="G15" s="2">
         <v>11.0</v>
       </c>
@@ -2428,10 +2383,7 @@
       <c r="E16" s="3">
         <v>19.0</v>
       </c>
-      <c r="F16" s="3">
-        <f t="shared" si="1"/>
-        <v>22.8</v>
-      </c>
+      <c r="F16" s="3"/>
       <c r="G16" s="2">
         <v>295.0</v>
       </c>
@@ -2455,10 +2407,7 @@
       <c r="E17" s="3">
         <v>39.446</v>
       </c>
-      <c r="F17" s="3">
-        <f t="shared" si="1"/>
-        <v>47.3352</v>
-      </c>
+      <c r="F17" s="3"/>
       <c r="G17" s="2">
         <v>18.0</v>
       </c>
@@ -2482,10 +2431,7 @@
       <c r="E18" s="3">
         <v>42.383</v>
       </c>
-      <c r="F18" s="3">
-        <f t="shared" si="1"/>
-        <v>50.8596</v>
-      </c>
+      <c r="F18" s="3"/>
       <c r="G18" s="2">
         <v>56.0</v>
       </c>
@@ -2507,10 +2453,7 @@
       <c r="E19" s="3">
         <v>927.553</v>
       </c>
-      <c r="F19" s="3">
-        <f t="shared" si="1"/>
-        <v>1113.0636</v>
-      </c>
+      <c r="F19" s="3"/>
       <c r="G19" s="2">
         <v>1.0</v>
       </c>
@@ -2534,10 +2477,7 @@
       <c r="E20" s="3">
         <v>32.0</v>
       </c>
-      <c r="F20" s="3">
-        <f t="shared" si="1"/>
-        <v>38.4</v>
-      </c>
+      <c r="F20" s="3"/>
       <c r="G20" s="2">
         <v>43.0</v>
       </c>
@@ -2561,10 +2501,7 @@
       <c r="E21" s="3">
         <v>45.0</v>
       </c>
-      <c r="F21" s="3">
-        <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
+      <c r="F21" s="3"/>
       <c r="G21" s="2">
         <v>20.0</v>
       </c>
@@ -2586,10 +2523,7 @@
       <c r="E22" s="3">
         <v>310.75</v>
       </c>
-      <c r="F22" s="3">
-        <f t="shared" si="1"/>
-        <v>372.9</v>
-      </c>
+      <c r="F22" s="3"/>
       <c r="G22" s="2">
         <v>2.0</v>
       </c>
@@ -2613,10 +2547,7 @@
       <c r="E23" s="3">
         <v>48.466</v>
       </c>
-      <c r="F23" s="3">
-        <f t="shared" si="1"/>
-        <v>58.1592</v>
-      </c>
+      <c r="F23" s="3"/>
       <c r="G23" s="2">
         <v>2.0</v>
       </c>
@@ -2640,10 +2571,7 @@
       <c r="E24" s="3">
         <v>39.446</v>
       </c>
-      <c r="F24" s="3">
-        <f t="shared" si="1"/>
-        <v>47.3352</v>
-      </c>
+      <c r="F24" s="3"/>
       <c r="G24" s="2">
         <v>2.0</v>
       </c>
@@ -2667,10 +2595,7 @@
       <c r="E25" s="3">
         <v>49.5</v>
       </c>
-      <c r="F25" s="3">
-        <f t="shared" si="1"/>
-        <v>59.4</v>
-      </c>
+      <c r="F25" s="3"/>
       <c r="G25" s="2">
         <v>13.0</v>
       </c>
@@ -2694,10 +2619,7 @@
       <c r="E26" s="3">
         <v>33.0</v>
       </c>
-      <c r="F26" s="3">
-        <f t="shared" si="1"/>
-        <v>39.6</v>
-      </c>
+      <c r="F26" s="3"/>
       <c r="G26" s="2">
         <v>1.0</v>
       </c>
@@ -2721,10 +2643,7 @@
       <c r="E27" s="3">
         <v>43.153</v>
       </c>
-      <c r="F27" s="3">
-        <f t="shared" si="1"/>
-        <v>51.7836</v>
-      </c>
+      <c r="F27" s="3"/>
       <c r="G27" s="2">
         <v>8.0</v>
       </c>
@@ -2748,10 +2667,7 @@
       <c r="E28" s="3">
         <v>22.0</v>
       </c>
-      <c r="F28" s="3">
-        <f t="shared" si="1"/>
-        <v>26.4</v>
-      </c>
+      <c r="F28" s="3"/>
       <c r="G28" s="2">
         <v>70.0</v>
       </c>
@@ -2775,10 +2691,7 @@
       <c r="E29" s="3">
         <v>42.13</v>
       </c>
-      <c r="F29" s="3">
-        <f t="shared" si="1"/>
-        <v>50.556</v>
-      </c>
+      <c r="F29" s="3"/>
       <c r="G29" s="2">
         <v>65.0</v>
       </c>
@@ -2802,10 +2715,7 @@
       <c r="E30" s="3">
         <v>68.794</v>
       </c>
-      <c r="F30" s="3">
-        <f t="shared" si="1"/>
-        <v>82.5528</v>
-      </c>
+      <c r="F30" s="3"/>
       <c r="G30" s="2">
         <v>24.0</v>
       </c>
@@ -2829,10 +2739,7 @@
       <c r="E31" s="3">
         <v>25.3</v>
       </c>
-      <c r="F31" s="3">
-        <f t="shared" si="1"/>
-        <v>30.36</v>
-      </c>
+      <c r="F31" s="3"/>
       <c r="G31" s="2">
         <v>6.0</v>
       </c>
@@ -2856,10 +2763,7 @@
       <c r="E32" s="3">
         <v>45.804</v>
       </c>
-      <c r="F32" s="3">
-        <f t="shared" si="1"/>
-        <v>54.9648</v>
-      </c>
+      <c r="F32" s="3"/>
       <c r="G32" s="2">
         <v>6.0</v>
       </c>
@@ -2883,10 +2787,7 @@
       <c r="E33" s="3">
         <v>29.832</v>
       </c>
-      <c r="F33" s="3">
-        <f t="shared" si="1"/>
-        <v>35.7984</v>
-      </c>
+      <c r="F33" s="3"/>
       <c r="G33" s="2">
         <v>20.0</v>
       </c>
@@ -2910,10 +2811,7 @@
       <c r="E34" s="3">
         <v>39.281</v>
       </c>
-      <c r="F34" s="3">
-        <f t="shared" si="1"/>
-        <v>47.1372</v>
-      </c>
+      <c r="F34" s="3"/>
       <c r="G34" s="2">
         <v>55.0</v>
       </c>
@@ -2937,10 +2835,7 @@
       <c r="E35" s="3">
         <v>38.797</v>
       </c>
-      <c r="F35" s="3">
-        <f t="shared" si="1"/>
-        <v>46.5564</v>
-      </c>
+      <c r="F35" s="3"/>
       <c r="G35" s="2">
         <v>116.0</v>
       </c>
@@ -2964,10 +2859,7 @@
       <c r="E36" s="3">
         <v>154.0</v>
       </c>
-      <c r="F36" s="3">
-        <f t="shared" si="1"/>
-        <v>184.8</v>
-      </c>
+      <c r="F36" s="3"/>
       <c r="G36" s="2">
         <v>1.0</v>
       </c>
@@ -2991,10 +2883,7 @@
       <c r="E37" s="3">
         <v>40.832</v>
       </c>
-      <c r="F37" s="3">
-        <f t="shared" si="1"/>
-        <v>48.9984</v>
-      </c>
+      <c r="F37" s="3"/>
       <c r="G37" s="2">
         <v>9.0</v>
       </c>
@@ -3018,10 +2907,7 @@
       <c r="E38" s="3">
         <v>21.351</v>
       </c>
-      <c r="F38" s="3">
-        <f t="shared" si="1"/>
-        <v>25.6212</v>
-      </c>
+      <c r="F38" s="3"/>
       <c r="G38" s="2">
         <v>16.0</v>
       </c>
@@ -3045,10 +2931,7 @@
       <c r="E39" s="3">
         <v>67.485</v>
       </c>
-      <c r="F39" s="3">
-        <f t="shared" si="1"/>
-        <v>80.982</v>
-      </c>
+      <c r="F39" s="3"/>
       <c r="G39" s="2">
         <v>1.0</v>
       </c>
@@ -3072,10 +2955,7 @@
       <c r="E40" s="3">
         <v>39.05</v>
       </c>
-      <c r="F40" s="3">
-        <f t="shared" si="1"/>
-        <v>46.86</v>
-      </c>
+      <c r="F40" s="3"/>
       <c r="G40" s="2">
         <v>23.0</v>
       </c>
@@ -3099,10 +2979,7 @@
       <c r="E41" s="3">
         <v>59.499</v>
       </c>
-      <c r="F41" s="3">
-        <f t="shared" si="1"/>
-        <v>71.3988</v>
-      </c>
+      <c r="F41" s="3"/>
       <c r="G41" s="2">
         <v>8.0</v>
       </c>
@@ -3126,10 +3003,7 @@
       <c r="E42" s="3">
         <v>39.446</v>
       </c>
-      <c r="F42" s="3">
-        <f t="shared" si="1"/>
-        <v>47.3352</v>
-      </c>
+      <c r="F42" s="3"/>
       <c r="G42" s="2">
         <v>2.0</v>
       </c>
@@ -3153,10 +3027,7 @@
       <c r="E43" s="3">
         <v>110.0</v>
       </c>
-      <c r="F43" s="3">
-        <f t="shared" si="1"/>
-        <v>132</v>
-      </c>
+      <c r="F43" s="3"/>
       <c r="G43" s="2">
         <v>20.0</v>
       </c>
@@ -3180,10 +3051,7 @@
       <c r="E44" s="3">
         <v>25.3</v>
       </c>
-      <c r="F44" s="3">
-        <f t="shared" si="1"/>
-        <v>30.36</v>
-      </c>
+      <c r="F44" s="3"/>
       <c r="G44" s="2">
         <v>2.0</v>
       </c>
@@ -3207,10 +3075,7 @@
       <c r="E45" s="3">
         <v>39.05</v>
       </c>
-      <c r="F45" s="3">
-        <f t="shared" si="1"/>
-        <v>46.86</v>
-      </c>
+      <c r="F45" s="3"/>
       <c r="G45" s="2">
         <v>9.0</v>
       </c>
@@ -3234,10 +3099,7 @@
       <c r="E46" s="3">
         <v>37.4</v>
       </c>
-      <c r="F46" s="3">
-        <f t="shared" si="1"/>
-        <v>44.88</v>
-      </c>
+      <c r="F46" s="3"/>
       <c r="G46" s="2">
         <v>9.0</v>
       </c>
@@ -3259,10 +3121,7 @@
       <c r="E47" s="3">
         <v>49.54</v>
       </c>
-      <c r="F47" s="3">
-        <f t="shared" si="1"/>
-        <v>59.448</v>
-      </c>
+      <c r="F47" s="3"/>
       <c r="G47" s="2">
         <v>18.0</v>
       </c>
@@ -3286,10 +3145,7 @@
       <c r="E48" s="3">
         <v>63.8</v>
       </c>
-      <c r="F48" s="3">
-        <f t="shared" si="1"/>
-        <v>76.56</v>
-      </c>
+      <c r="F48" s="3"/>
       <c r="G48" s="2">
         <v>229.0</v>
       </c>
@@ -3313,10 +3169,7 @@
       <c r="E49" s="3">
         <v>68.2</v>
       </c>
-      <c r="F49" s="3">
-        <f t="shared" si="1"/>
-        <v>81.84</v>
-      </c>
+      <c r="F49" s="3"/>
       <c r="G49" s="2">
         <v>290.0</v>
       </c>
@@ -3338,10 +3191,7 @@
       <c r="E50" s="3">
         <v>1149.5</v>
       </c>
-      <c r="F50" s="3">
-        <f t="shared" si="1"/>
-        <v>1379.4</v>
-      </c>
+      <c r="F50" s="3"/>
       <c r="G50" s="2">
         <v>51.0</v>
       </c>
@@ -3363,10 +3213,7 @@
       <c r="E51" s="3">
         <v>2047.65</v>
       </c>
-      <c r="F51" s="3">
-        <f t="shared" si="1"/>
-        <v>2457.18</v>
-      </c>
+      <c r="F51" s="3"/>
       <c r="G51" s="2">
         <v>32.0</v>
       </c>
@@ -3388,10 +3235,7 @@
       <c r="E52" s="3">
         <v>1150.0</v>
       </c>
-      <c r="F52" s="3">
-        <f t="shared" si="1"/>
-        <v>1380</v>
-      </c>
+      <c r="F52" s="3"/>
       <c r="G52" s="2">
         <v>27.0</v>
       </c>
@@ -3413,10 +3257,7 @@
       <c r="E53" s="3">
         <v>1537.8</v>
       </c>
-      <c r="F53" s="3">
-        <f t="shared" si="1"/>
-        <v>1845.36</v>
-      </c>
+      <c r="F53" s="3"/>
       <c r="G53" s="2">
         <v>5.0</v>
       </c>
@@ -3440,10 +3281,7 @@
       <c r="E54" s="3">
         <v>2453.0</v>
       </c>
-      <c r="F54" s="3">
-        <f t="shared" si="1"/>
-        <v>2943.6</v>
-      </c>
+      <c r="F54" s="3"/>
       <c r="G54" s="2">
         <v>2.0</v>
       </c>
@@ -3465,10 +3303,7 @@
       <c r="E55" s="3">
         <v>849.0</v>
       </c>
-      <c r="F55" s="3">
-        <f t="shared" si="1"/>
-        <v>1018.8</v>
-      </c>
+      <c r="F55" s="3"/>
       <c r="G55" s="2">
         <v>147.0</v>
       </c>
@@ -3490,10 +3325,7 @@
       <c r="E56" s="3">
         <v>849.51</v>
       </c>
-      <c r="F56" s="3">
-        <f t="shared" si="1"/>
-        <v>1019.412</v>
-      </c>
+      <c r="F56" s="3"/>
       <c r="G56" s="2">
         <v>180.0</v>
       </c>
@@ -3515,10 +3347,7 @@
       <c r="E57" s="3">
         <v>903.0</v>
       </c>
-      <c r="F57" s="3">
-        <f t="shared" si="1"/>
-        <v>1083.6</v>
-      </c>
+      <c r="F57" s="3"/>
       <c r="G57" s="2">
         <v>168.0</v>
       </c>
@@ -3540,10 +3369,7 @@
       <c r="E58" s="3">
         <v>1098.897</v>
       </c>
-      <c r="F58" s="3">
-        <f t="shared" si="1"/>
-        <v>1318.6764</v>
-      </c>
+      <c r="F58" s="3"/>
       <c r="G58" s="2">
         <v>8.0</v>
       </c>
@@ -3567,10 +3393,7 @@
       <c r="E59" s="3">
         <v>88.0</v>
       </c>
-      <c r="F59" s="3">
-        <f t="shared" si="1"/>
-        <v>105.6</v>
-      </c>
+      <c r="F59" s="3"/>
       <c r="G59" s="2">
         <v>1.0</v>
       </c>
@@ -3594,10 +3417,7 @@
       <c r="E60" s="3">
         <v>36.3</v>
       </c>
-      <c r="F60" s="3">
-        <f t="shared" si="1"/>
-        <v>43.56</v>
-      </c>
+      <c r="F60" s="3"/>
       <c r="G60" s="2">
         <v>4.0</v>
       </c>
@@ -3621,10 +3441,7 @@
       <c r="E61" s="3">
         <v>113.3</v>
       </c>
-      <c r="F61" s="3">
-        <f t="shared" si="1"/>
-        <v>135.96</v>
-      </c>
+      <c r="F61" s="3"/>
       <c r="G61" s="2">
         <v>158.0</v>
       </c>
@@ -3648,10 +3465,7 @@
       <c r="E62" s="3">
         <v>113.3</v>
       </c>
-      <c r="F62" s="3">
-        <f t="shared" si="1"/>
-        <v>135.96</v>
-      </c>
+      <c r="F62" s="3"/>
       <c r="G62" s="2">
         <v>385.0</v>
       </c>
@@ -3675,10 +3489,7 @@
       <c r="E63" s="3">
         <v>659.99406</v>
       </c>
-      <c r="F63" s="3">
-        <f t="shared" si="1"/>
-        <v>791.992872</v>
-      </c>
+      <c r="F63" s="3"/>
       <c r="G63" s="2">
         <v>153.0</v>
       </c>
@@ -3702,10 +3513,7 @@
       <c r="E64" s="3">
         <v>449.9</v>
       </c>
-      <c r="F64" s="3">
-        <f t="shared" si="1"/>
-        <v>539.88</v>
-      </c>
+      <c r="F64" s="3"/>
       <c r="G64" s="2">
         <v>20.0</v>
       </c>
@@ -3729,10 +3537,7 @@
       <c r="E65" s="3">
         <v>645.8041</v>
       </c>
-      <c r="F65" s="3">
-        <f t="shared" si="1"/>
-        <v>774.96492</v>
-      </c>
+      <c r="F65" s="3"/>
       <c r="G65" s="2">
         <v>32.0</v>
       </c>
@@ -3756,10 +3561,7 @@
       <c r="E66" s="3">
         <v>465.3</v>
       </c>
-      <c r="F66" s="3">
-        <f t="shared" si="1"/>
-        <v>558.36</v>
-      </c>
+      <c r="F66" s="3"/>
       <c r="G66" s="2">
         <v>54.0</v>
       </c>
@@ -3783,10 +3585,7 @@
       <c r="E67" s="3">
         <v>1188.816</v>
       </c>
-      <c r="F67" s="3">
-        <f t="shared" si="1"/>
-        <v>1426.5792</v>
-      </c>
+      <c r="F67" s="3"/>
       <c r="G67" s="2">
         <v>9.0</v>
       </c>
@@ -3810,10 +3609,7 @@
       <c r="E68" s="3">
         <v>971.3</v>
       </c>
-      <c r="F68" s="3">
-        <f t="shared" si="1"/>
-        <v>1165.56</v>
-      </c>
+      <c r="F68" s="3"/>
       <c r="G68" s="2">
         <v>56.0</v>
       </c>
@@ -3837,10 +3633,7 @@
       <c r="E69" s="3">
         <v>441.1</v>
       </c>
-      <c r="F69" s="3">
-        <f t="shared" si="1"/>
-        <v>529.32</v>
-      </c>
+      <c r="F69" s="3"/>
       <c r="G69" s="2">
         <v>21.0</v>
       </c>
@@ -3862,10 +3655,7 @@
       <c r="E70" s="3">
         <v>173.0</v>
       </c>
-      <c r="F70" s="3">
-        <f t="shared" si="1"/>
-        <v>207.6</v>
-      </c>
+      <c r="F70" s="3"/>
       <c r="G70" s="2">
         <v>1.0</v>
       </c>
@@ -3889,10 +3679,7 @@
       <c r="E71" s="3">
         <v>629.2</v>
       </c>
-      <c r="F71" s="3">
-        <f t="shared" si="1"/>
-        <v>755.04</v>
-      </c>
+      <c r="F71" s="3"/>
       <c r="G71" s="2">
         <v>7.0</v>
       </c>
@@ -3916,10 +3703,7 @@
       <c r="E72" s="3">
         <v>159.5</v>
       </c>
-      <c r="F72" s="3">
-        <f t="shared" si="1"/>
-        <v>191.4</v>
-      </c>
+      <c r="F72" s="3"/>
       <c r="G72" s="2">
         <v>108.0</v>
       </c>
@@ -3943,10 +3727,7 @@
       <c r="E73" s="3">
         <v>570.9</v>
       </c>
-      <c r="F73" s="3">
-        <f t="shared" si="1"/>
-        <v>685.08</v>
-      </c>
+      <c r="F73" s="3"/>
       <c r="G73" s="2">
         <v>4.0</v>
       </c>
@@ -3970,10 +3751,7 @@
       <c r="E74" s="3">
         <v>519.2</v>
       </c>
-      <c r="F74" s="3">
-        <f t="shared" si="1"/>
-        <v>623.04</v>
-      </c>
+      <c r="F74" s="3"/>
       <c r="G74" s="2">
         <v>380.0</v>
       </c>
@@ -3997,10 +3775,7 @@
       <c r="E75" s="3">
         <v>631.4</v>
       </c>
-      <c r="F75" s="3">
-        <f t="shared" si="1"/>
-        <v>757.68</v>
-      </c>
+      <c r="F75" s="3"/>
       <c r="G75" s="2">
         <v>339.0</v>
       </c>
@@ -4024,10 +3799,7 @@
       <c r="E76" s="3">
         <v>77.0</v>
       </c>
-      <c r="F76" s="3">
-        <f t="shared" si="1"/>
-        <v>92.4</v>
-      </c>
+      <c r="F76" s="3"/>
       <c r="G76" s="2">
         <v>3.0</v>
       </c>
@@ -4051,10 +3823,7 @@
       <c r="E77" s="3">
         <v>513.7</v>
       </c>
-      <c r="F77" s="3">
-        <f t="shared" si="1"/>
-        <v>616.44</v>
-      </c>
+      <c r="F77" s="3"/>
       <c r="G77" s="2">
         <v>2.0</v>
       </c>
@@ -4078,10 +3847,7 @@
       <c r="E78" s="3">
         <v>729.3</v>
       </c>
-      <c r="F78" s="3">
-        <f t="shared" si="1"/>
-        <v>875.16</v>
-      </c>
+      <c r="F78" s="3"/>
       <c r="G78" s="2">
         <v>21.0</v>
       </c>
@@ -4105,10 +3871,7 @@
       <c r="E79" s="3">
         <v>38.5</v>
       </c>
-      <c r="F79" s="3">
-        <f t="shared" si="1"/>
-        <v>46.2</v>
-      </c>
+      <c r="F79" s="3"/>
       <c r="G79" s="2">
         <v>34.0</v>
       </c>
@@ -4132,10 +3895,7 @@
       <c r="E80" s="3">
         <v>97.9</v>
       </c>
-      <c r="F80" s="3">
-        <f t="shared" si="1"/>
-        <v>117.48</v>
-      </c>
+      <c r="F80" s="3"/>
       <c r="G80" s="2">
         <v>109.0</v>
       </c>
@@ -4159,10 +3919,7 @@
       <c r="E81" s="3">
         <v>389.4</v>
       </c>
-      <c r="F81" s="3">
-        <f t="shared" si="1"/>
-        <v>467.28</v>
-      </c>
+      <c r="F81" s="3"/>
       <c r="G81" s="2">
         <v>106.0</v>
       </c>
@@ -4186,10 +3943,7 @@
       <c r="E82" s="3">
         <v>380.6</v>
       </c>
-      <c r="F82" s="3">
-        <f t="shared" si="1"/>
-        <v>456.72</v>
-      </c>
+      <c r="F82" s="3"/>
       <c r="G82" s="2">
         <v>40.0</v>
       </c>
@@ -4213,10 +3967,7 @@
       <c r="E83" s="3">
         <v>260.7</v>
       </c>
-      <c r="F83" s="3">
-        <f t="shared" si="1"/>
-        <v>312.84</v>
-      </c>
+      <c r="F83" s="3"/>
       <c r="G83" s="2">
         <v>11.0</v>
       </c>
@@ -4240,10 +3991,7 @@
       <c r="E84" s="3">
         <v>64.9</v>
       </c>
-      <c r="F84" s="3">
-        <f t="shared" si="1"/>
-        <v>77.88</v>
-      </c>
+      <c r="F84" s="3"/>
       <c r="G84" s="2">
         <v>52.0</v>
       </c>
@@ -4267,10 +4015,7 @@
       <c r="E85" s="3">
         <v>412.0</v>
       </c>
-      <c r="F85" s="3">
-        <f t="shared" si="1"/>
-        <v>494.4</v>
-      </c>
+      <c r="F85" s="3"/>
       <c r="G85" s="2">
         <v>255.0</v>
       </c>
@@ -4294,10 +4039,7 @@
       <c r="E86" s="3">
         <v>72.6</v>
       </c>
-      <c r="F86" s="3">
-        <f t="shared" si="1"/>
-        <v>87.12</v>
-      </c>
+      <c r="F86" s="3"/>
       <c r="G86" s="2">
         <v>1.0</v>
       </c>
@@ -4321,10 +4063,7 @@
       <c r="E87" s="3">
         <v>258.5</v>
       </c>
-      <c r="F87" s="3">
-        <f t="shared" si="1"/>
-        <v>310.2</v>
-      </c>
+      <c r="F87" s="3"/>
       <c r="G87" s="2">
         <v>394.0</v>
       </c>
@@ -4348,10 +4087,7 @@
       <c r="E88" s="3">
         <v>830.5</v>
       </c>
-      <c r="F88" s="3">
-        <f t="shared" si="1"/>
-        <v>996.6</v>
-      </c>
+      <c r="F88" s="3"/>
       <c r="G88" s="2">
         <v>106.0</v>
       </c>
@@ -4375,10 +4111,7 @@
       <c r="E89" s="3">
         <v>820.6</v>
       </c>
-      <c r="F89" s="3">
-        <f t="shared" si="1"/>
-        <v>984.72</v>
-      </c>
+      <c r="F89" s="3"/>
       <c r="G89" s="2">
         <v>15.0</v>
       </c>
@@ -4402,10 +4135,7 @@
       <c r="E90" s="3">
         <v>855.8</v>
       </c>
-      <c r="F90" s="3">
-        <f t="shared" si="1"/>
-        <v>1026.96</v>
-      </c>
+      <c r="F90" s="3"/>
       <c r="G90" s="2">
         <v>166.0</v>
       </c>
@@ -4429,10 +4159,7 @@
       <c r="E91" s="3">
         <v>85.8</v>
       </c>
-      <c r="F91" s="3">
-        <f t="shared" si="1"/>
-        <v>102.96</v>
-      </c>
+      <c r="F91" s="3"/>
       <c r="G91" s="2">
         <v>57.0</v>
       </c>
@@ -4456,10 +4183,7 @@
       <c r="E92" s="3">
         <v>322.53771</v>
       </c>
-      <c r="F92" s="3">
-        <f t="shared" si="1"/>
-        <v>387.045252</v>
-      </c>
+      <c r="F92" s="3"/>
       <c r="G92" s="2">
         <v>431.0</v>
       </c>
@@ -4483,10 +4207,7 @@
       <c r="E93" s="3">
         <v>141.9</v>
       </c>
-      <c r="F93" s="3">
-        <f t="shared" si="1"/>
-        <v>170.28</v>
-      </c>
+      <c r="F93" s="3"/>
       <c r="G93" s="2">
         <v>1.0</v>
       </c>
@@ -4510,10 +4231,7 @@
       <c r="E94" s="3">
         <v>298.1</v>
       </c>
-      <c r="F94" s="3">
-        <f t="shared" si="1"/>
-        <v>357.72</v>
-      </c>
+      <c r="F94" s="3"/>
       <c r="G94" s="2">
         <v>21.0</v>
       </c>
@@ -4537,10 +4255,7 @@
       <c r="E95" s="3">
         <v>86.9</v>
       </c>
-      <c r="F95" s="3">
-        <f t="shared" si="1"/>
-        <v>104.28</v>
-      </c>
+      <c r="F95" s="3"/>
       <c r="G95" s="2">
         <v>39.0</v>
       </c>
@@ -4562,10 +4277,7 @@
       <c r="E96" s="3">
         <v>953.28</v>
       </c>
-      <c r="F96" s="3">
-        <f t="shared" si="1"/>
-        <v>1143.936</v>
-      </c>
+      <c r="F96" s="3"/>
       <c r="G96" s="2">
         <v>4.0</v>
       </c>
@@ -4587,10 +4299,7 @@
       <c r="E97" s="3">
         <v>475.0</v>
       </c>
-      <c r="F97" s="3">
-        <f t="shared" si="1"/>
-        <v>570</v>
-      </c>
+      <c r="F97" s="3"/>
       <c r="G97" s="2">
         <v>4.0</v>
       </c>
@@ -4614,10 +4323,7 @@
       <c r="E98" s="3">
         <v>865.7</v>
       </c>
-      <c r="F98" s="3">
-        <f t="shared" si="1"/>
-        <v>1038.84</v>
-      </c>
+      <c r="F98" s="3"/>
       <c r="G98" s="2">
         <v>8.0</v>
       </c>
@@ -4641,10 +4347,7 @@
       <c r="E99" s="3">
         <v>414.7</v>
       </c>
-      <c r="F99" s="3">
-        <f t="shared" si="1"/>
-        <v>497.64</v>
-      </c>
+      <c r="F99" s="3"/>
       <c r="G99" s="2">
         <v>156.0</v>
       </c>
@@ -4668,10 +4371,7 @@
       <c r="E100" s="3">
         <v>631.4</v>
       </c>
-      <c r="F100" s="3">
-        <f t="shared" si="1"/>
-        <v>757.68</v>
-      </c>
+      <c r="F100" s="3"/>
       <c r="G100" s="2">
         <v>50.0</v>
       </c>
@@ -4695,10 +4395,7 @@
       <c r="E101" s="3">
         <v>127.6</v>
       </c>
-      <c r="F101" s="3">
-        <f t="shared" si="1"/>
-        <v>153.12</v>
-      </c>
+      <c r="F101" s="3"/>
       <c r="G101" s="2">
         <v>17.0</v>
       </c>
@@ -4722,10 +4419,7 @@
       <c r="E102" s="3">
         <v>452.1</v>
       </c>
-      <c r="F102" s="3">
-        <f t="shared" si="1"/>
-        <v>542.52</v>
-      </c>
+      <c r="F102" s="3"/>
       <c r="G102" s="2">
         <v>31.0</v>
       </c>
@@ -4749,10 +4443,7 @@
       <c r="E103" s="3">
         <v>991.1</v>
       </c>
-      <c r="F103" s="3">
-        <f t="shared" si="1"/>
-        <v>1189.32</v>
-      </c>
+      <c r="F103" s="3"/>
       <c r="G103" s="2">
         <v>15.0</v>
       </c>
@@ -4774,10 +4465,7 @@
       <c r="E104" s="3">
         <v>832.5</v>
       </c>
-      <c r="F104" s="3">
-        <f t="shared" si="1"/>
-        <v>999</v>
-      </c>
+      <c r="F104" s="3"/>
       <c r="G104" s="2">
         <v>4.0</v>
       </c>
@@ -4801,10 +4489,7 @@
       <c r="E105" s="3">
         <v>363.0</v>
       </c>
-      <c r="F105" s="3">
-        <f t="shared" si="1"/>
-        <v>435.6</v>
-      </c>
+      <c r="F105" s="3"/>
       <c r="G105" s="2">
         <v>4.0</v>
       </c>
@@ -4828,10 +4513,7 @@
       <c r="E106" s="3">
         <v>122.1</v>
       </c>
-      <c r="F106" s="3">
-        <f t="shared" si="1"/>
-        <v>146.52</v>
-      </c>
+      <c r="F106" s="3"/>
       <c r="G106" s="2">
         <v>4.0</v>
       </c>
@@ -4853,10 +4535,7 @@
       <c r="E107" s="3">
         <v>42.878</v>
       </c>
-      <c r="F107" s="3">
-        <f t="shared" si="1"/>
-        <v>51.4536</v>
-      </c>
+      <c r="F107" s="3"/>
       <c r="G107" s="2">
         <v>2.0</v>
       </c>
@@ -4878,10 +4557,7 @@
       <c r="E108" s="3">
         <v>2595.618</v>
       </c>
-      <c r="F108" s="3">
-        <f t="shared" si="1"/>
-        <v>3114.7416</v>
-      </c>
+      <c r="F108" s="3"/>
       <c r="G108" s="2">
         <v>15.0</v>
       </c>
@@ -4903,10 +4579,7 @@
       <c r="E109" s="3">
         <v>2595.65</v>
       </c>
-      <c r="F109" s="3">
-        <f t="shared" si="1"/>
-        <v>3114.78</v>
-      </c>
+      <c r="F109" s="3"/>
       <c r="G109" s="2">
         <v>14.0</v>
       </c>
@@ -4928,10 +4601,7 @@
       <c r="E110" s="3">
         <v>3495.76271</v>
       </c>
-      <c r="F110" s="3">
-        <f t="shared" si="1"/>
-        <v>4194.915252</v>
-      </c>
+      <c r="F110" s="3"/>
       <c r="G110" s="2">
         <v>9.0</v>
       </c>
@@ -4953,10 +4623,7 @@
       <c r="E111" s="3">
         <v>3849.0</v>
       </c>
-      <c r="F111" s="3">
-        <f t="shared" si="1"/>
-        <v>4618.8</v>
-      </c>
+      <c r="F111" s="3"/>
       <c r="G111" s="2">
         <v>10.0</v>
       </c>
@@ -4978,10 +4645,7 @@
       <c r="E112" s="3">
         <v>151.8</v>
       </c>
-      <c r="F112" s="3">
-        <f t="shared" si="1"/>
-        <v>182.16</v>
-      </c>
+      <c r="F112" s="3"/>
       <c r="G112" s="2">
         <v>5.0</v>
       </c>
@@ -5005,10 +4669,7 @@
       <c r="E113" s="3">
         <v>90.41978</v>
       </c>
-      <c r="F113" s="3">
-        <f t="shared" si="1"/>
-        <v>108.503736</v>
-      </c>
+      <c r="F113" s="3"/>
       <c r="G113" s="2">
         <v>74.0</v>
       </c>
@@ -5032,10 +4693,7 @@
       <c r="E114" s="3">
         <v>88.0</v>
       </c>
-      <c r="F114" s="3">
-        <f t="shared" si="1"/>
-        <v>105.6</v>
-      </c>
+      <c r="F114" s="3"/>
       <c r="G114" s="2">
         <v>7.0</v>
       </c>
@@ -5059,10 +4717,7 @@
       <c r="E115" s="3">
         <v>107.8</v>
       </c>
-      <c r="F115" s="3">
-        <f t="shared" si="1"/>
-        <v>129.36</v>
-      </c>
+      <c r="F115" s="3"/>
       <c r="G115" s="2">
         <v>26.0</v>
       </c>
@@ -5086,10 +4741,7 @@
       <c r="E116" s="3">
         <v>2186.822</v>
       </c>
-      <c r="F116" s="3">
-        <f t="shared" si="1"/>
-        <v>2624.1864</v>
-      </c>
+      <c r="F116" s="3"/>
       <c r="G116" s="2">
         <v>1.0</v>
       </c>
@@ -5111,10 +4763,7 @@
       <c r="E117" s="3">
         <v>48.004</v>
       </c>
-      <c r="F117" s="3">
-        <f t="shared" si="1"/>
-        <v>57.6048</v>
-      </c>
+      <c r="F117" s="3"/>
       <c r="G117" s="2">
         <v>2.0</v>
       </c>
@@ -5138,10 +4787,7 @@
       <c r="E118" s="3">
         <v>125.4</v>
       </c>
-      <c r="F118" s="3">
-        <f t="shared" si="1"/>
-        <v>150.48</v>
-      </c>
+      <c r="F118" s="3"/>
       <c r="G118" s="2">
         <v>1.0</v>
       </c>
@@ -5163,10 +4809,7 @@
       <c r="E119" s="3">
         <v>1231.61017</v>
       </c>
-      <c r="F119" s="3">
-        <f t="shared" si="1"/>
-        <v>1477.932204</v>
-      </c>
+      <c r="F119" s="3"/>
       <c r="G119" s="2">
         <v>14.0</v>
       </c>
@@ -5188,10 +4831,7 @@
       <c r="E120" s="3">
         <v>1186.44068</v>
       </c>
-      <c r="F120" s="3">
-        <f t="shared" si="1"/>
-        <v>1423.728816</v>
-      </c>
+      <c r="F120" s="3"/>
       <c r="G120" s="2">
         <v>11.0</v>
       </c>
@@ -5215,10 +4855,7 @@
       <c r="E121" s="3">
         <v>156.2</v>
       </c>
-      <c r="F121" s="3">
-        <f t="shared" si="1"/>
-        <v>187.44</v>
-      </c>
+      <c r="F121" s="3"/>
       <c r="G121" s="2">
         <v>41.0</v>
       </c>
@@ -5240,10 +4877,7 @@
       <c r="E122" s="3">
         <v>2490.97</v>
       </c>
-      <c r="F122" s="3">
-        <f t="shared" si="1"/>
-        <v>2989.164</v>
-      </c>
+      <c r="F122" s="3"/>
       <c r="G122" s="2">
         <v>5.0</v>
       </c>
@@ -5265,10 +4899,7 @@
       <c r="E123" s="3">
         <v>116.6</v>
       </c>
-      <c r="F123" s="3">
-        <f t="shared" si="1"/>
-        <v>139.92</v>
-      </c>
+      <c r="F123" s="3"/>
       <c r="G123" s="2">
         <v>3.0</v>
       </c>
@@ -5292,10 +4923,7 @@
       <c r="E124" s="3">
         <v>136.4</v>
       </c>
-      <c r="F124" s="3">
-        <f t="shared" si="1"/>
-        <v>163.68</v>
-      </c>
+      <c r="F124" s="3"/>
       <c r="G124" s="2">
         <v>96.0</v>
       </c>
@@ -5319,10 +4947,7 @@
       <c r="E125" s="3">
         <v>647.9</v>
       </c>
-      <c r="F125" s="3">
-        <f t="shared" si="1"/>
-        <v>777.48</v>
-      </c>
+      <c r="F125" s="3"/>
       <c r="G125" s="2">
         <v>2.0</v>
       </c>
@@ -5344,10 +4969,7 @@
       <c r="E126" s="3">
         <v>1758.0</v>
       </c>
-      <c r="F126" s="3">
-        <f t="shared" si="1"/>
-        <v>2109.6</v>
-      </c>
+      <c r="F126" s="3"/>
       <c r="G126" s="2">
         <v>9.0</v>
       </c>
@@ -5369,10 +4991,7 @@
       <c r="E127" s="3">
         <v>466.5</v>
       </c>
-      <c r="F127" s="3">
-        <f t="shared" si="1"/>
-        <v>559.8</v>
-      </c>
+      <c r="F127" s="3"/>
       <c r="G127" s="2">
         <v>4.0</v>
       </c>
@@ -5396,10 +5015,7 @@
       <c r="E128" s="3">
         <v>154.0</v>
       </c>
-      <c r="F128" s="3">
-        <f t="shared" si="1"/>
-        <v>184.8</v>
-      </c>
+      <c r="F128" s="3"/>
       <c r="G128" s="2">
         <v>74.0</v>
       </c>
@@ -5423,10 +5039,7 @@
       <c r="E129" s="3">
         <v>3094.3</v>
       </c>
-      <c r="F129" s="3">
-        <f t="shared" si="1"/>
-        <v>3713.16</v>
-      </c>
+      <c r="F129" s="3"/>
       <c r="G129" s="2">
         <v>2.0</v>
       </c>
@@ -5450,10 +5063,7 @@
       <c r="E130" s="3">
         <v>96.8</v>
       </c>
-      <c r="F130" s="3">
-        <f t="shared" si="1"/>
-        <v>116.16</v>
-      </c>
+      <c r="F130" s="3"/>
       <c r="G130" s="2">
         <v>56.0</v>
       </c>
@@ -5477,10 +5087,7 @@
       <c r="E131" s="3">
         <v>146.0</v>
       </c>
-      <c r="F131" s="3">
-        <f t="shared" si="1"/>
-        <v>175.2</v>
-      </c>
+      <c r="F131" s="3"/>
       <c r="G131" s="2">
         <v>73.0</v>
       </c>
@@ -5502,10 +5109,7 @@
       <c r="E132" s="3">
         <v>203.8832</v>
       </c>
-      <c r="F132" s="3">
-        <f t="shared" si="1"/>
-        <v>244.65984</v>
-      </c>
+      <c r="F132" s="3"/>
       <c r="G132" s="2">
         <v>50.0</v>
       </c>
@@ -5529,10 +5133,7 @@
       <c r="E133" s="3">
         <v>80.3</v>
       </c>
-      <c r="F133" s="3">
-        <f t="shared" si="1"/>
-        <v>96.36</v>
-      </c>
+      <c r="F133" s="3"/>
       <c r="G133" s="2">
         <v>33.0</v>
       </c>
@@ -5554,10 +5155,7 @@
       <c r="E134" s="3">
         <v>2915.0</v>
       </c>
-      <c r="F134" s="3">
-        <f t="shared" si="1"/>
-        <v>3498</v>
-      </c>
+      <c r="F134" s="3"/>
       <c r="G134" s="2">
         <v>2.0</v>
       </c>
@@ -5579,10 +5177,7 @@
       <c r="E135" s="3">
         <v>3148.2</v>
       </c>
-      <c r="F135" s="3">
-        <f t="shared" si="1"/>
-        <v>3777.84</v>
-      </c>
+      <c r="F135" s="3"/>
       <c r="G135" s="2">
         <v>4.0</v>
       </c>
@@ -5604,10 +5199,7 @@
       <c r="E136" s="3">
         <v>2396.856</v>
       </c>
-      <c r="F136" s="3">
-        <f t="shared" si="1"/>
-        <v>2876.2272</v>
-      </c>
+      <c r="F136" s="3"/>
       <c r="G136" s="2">
         <v>1.0</v>
       </c>
@@ -5629,10 +5221,7 @@
       <c r="E137" s="3">
         <v>1760.0</v>
       </c>
-      <c r="F137" s="3">
-        <f t="shared" si="1"/>
-        <v>2112</v>
-      </c>
+      <c r="F137" s="3"/>
       <c r="G137" s="2">
         <v>4.0</v>
       </c>
@@ -5656,10 +5245,7 @@
       <c r="E138" s="3">
         <v>171.6</v>
       </c>
-      <c r="F138" s="3">
-        <f t="shared" si="1"/>
-        <v>205.92</v>
-      </c>
+      <c r="F138" s="3"/>
       <c r="G138" s="2">
         <v>1.0</v>
       </c>
@@ -5683,10 +5269,7 @@
       <c r="E139" s="3">
         <v>540.1</v>
       </c>
-      <c r="F139" s="3">
-        <f t="shared" si="1"/>
-        <v>648.12</v>
-      </c>
+      <c r="F139" s="3"/>
       <c r="G139" s="2">
         <v>7.0</v>
       </c>
@@ -5710,10 +5293,7 @@
       <c r="E140" s="3">
         <v>1311.2</v>
       </c>
-      <c r="F140" s="3">
-        <f t="shared" si="1"/>
-        <v>1573.44</v>
-      </c>
+      <c r="F140" s="3"/>
       <c r="G140" s="2">
         <v>17.0</v>
       </c>
@@ -5737,10 +5317,7 @@
       <c r="E141" s="3">
         <v>1404.7</v>
       </c>
-      <c r="F141" s="3">
-        <f t="shared" si="1"/>
-        <v>1685.64</v>
-      </c>
+      <c r="F141" s="3"/>
       <c r="G141" s="2">
         <v>22.0</v>
       </c>
@@ -5764,10 +5341,7 @@
       <c r="E142" s="3">
         <v>592.9</v>
       </c>
-      <c r="F142" s="3">
-        <f t="shared" si="1"/>
-        <v>711.48</v>
-      </c>
+      <c r="F142" s="3"/>
       <c r="G142" s="2">
         <v>15.0</v>
       </c>
@@ -5791,10 +5365,7 @@
       <c r="E143" s="3">
         <v>2117.0</v>
       </c>
-      <c r="F143" s="3">
-        <f t="shared" si="1"/>
-        <v>2540.4</v>
-      </c>
+      <c r="F143" s="3"/>
       <c r="G143" s="2">
         <v>15.0</v>
       </c>
@@ -5818,10 +5389,7 @@
       <c r="E144" s="3">
         <v>1782.0</v>
       </c>
-      <c r="F144" s="3">
-        <f t="shared" si="1"/>
-        <v>2138.4</v>
-      </c>
+      <c r="F144" s="3"/>
       <c r="G144" s="2">
         <v>8.0</v>
       </c>
@@ -5843,10 +5411,7 @@
       <c r="E145" s="3">
         <v>231.0</v>
       </c>
-      <c r="F145" s="3">
-        <f t="shared" si="1"/>
-        <v>277.2</v>
-      </c>
+      <c r="F145" s="3"/>
       <c r="G145" s="2">
         <v>92.0</v>
       </c>
@@ -5868,10 +5433,7 @@
       <c r="E146" s="3">
         <v>160.0</v>
       </c>
-      <c r="F146" s="3">
-        <f t="shared" si="1"/>
-        <v>192</v>
-      </c>
+      <c r="F146" s="3"/>
       <c r="G146" s="2">
         <v>73.0</v>
       </c>
@@ -5893,10 +5455,7 @@
       <c r="E147" s="3">
         <v>1985.0</v>
       </c>
-      <c r="F147" s="3">
-        <f t="shared" si="1"/>
-        <v>2382</v>
-      </c>
+      <c r="F147" s="3"/>
       <c r="G147" s="2">
         <v>1.0</v>
       </c>
@@ -5918,10 +5477,7 @@
       <c r="E148" s="3">
         <v>3080.0</v>
       </c>
-      <c r="F148" s="3">
-        <f t="shared" si="1"/>
-        <v>3696</v>
-      </c>
+      <c r="F148" s="3"/>
       <c r="G148" s="2">
         <v>1.0</v>
       </c>
@@ -5943,10 +5499,7 @@
       <c r="E149" s="3">
         <v>3080.0</v>
       </c>
-      <c r="F149" s="3">
-        <f t="shared" si="1"/>
-        <v>3696</v>
-      </c>
+      <c r="F149" s="3"/>
       <c r="G149" s="2">
         <v>1.0</v>
       </c>
@@ -5970,10 +5523,7 @@
       <c r="E150" s="3">
         <v>5.5</v>
       </c>
-      <c r="F150" s="3">
-        <f t="shared" si="1"/>
-        <v>6.6</v>
-      </c>
+      <c r="F150" s="3"/>
       <c r="G150" s="2">
         <v>274.0</v>
       </c>
@@ -5997,10 +5547,7 @@
       <c r="E151" s="3">
         <v>121.0</v>
       </c>
-      <c r="F151" s="3">
-        <f t="shared" si="1"/>
-        <v>145.2</v>
-      </c>
+      <c r="F151" s="3"/>
       <c r="G151" s="2">
         <v>1.0</v>
       </c>
@@ -6022,10 +5569,7 @@
       <c r="E152" s="3">
         <v>116.01513</v>
       </c>
-      <c r="F152" s="3">
-        <f t="shared" si="1"/>
-        <v>139.218156</v>
-      </c>
+      <c r="F152" s="3"/>
       <c r="G152" s="2">
         <v>3.0</v>
       </c>
@@ -6047,10 +5591,7 @@
       <c r="E153" s="3">
         <v>2439.47222</v>
       </c>
-      <c r="F153" s="3">
-        <f t="shared" si="1"/>
-        <v>2927.366664</v>
-      </c>
+      <c r="F153" s="3"/>
       <c r="G153" s="2">
         <v>3.0</v>
       </c>
@@ -6074,10 +5615,7 @@
       <c r="E154" s="3">
         <v>14.75</v>
       </c>
-      <c r="F154" s="3">
-        <f t="shared" si="1"/>
-        <v>17.7</v>
-      </c>
+      <c r="F154" s="3"/>
       <c r="G154" s="2">
         <v>63.0</v>
       </c>
@@ -6099,10 +5637,7 @@
       <c r="E155" s="3">
         <v>107.18333</v>
       </c>
-      <c r="F155" s="3">
-        <f t="shared" si="1"/>
-        <v>128.619996</v>
-      </c>
+      <c r="F155" s="3"/>
       <c r="G155" s="2">
         <v>10.0</v>
       </c>
@@ -6124,10 +5659,7 @@
       <c r="E156" s="3">
         <v>780.0</v>
       </c>
-      <c r="F156" s="3">
-        <f t="shared" si="1"/>
-        <v>936</v>
-      </c>
+      <c r="F156" s="3"/>
       <c r="G156" s="2">
         <v>11.0</v>
       </c>
@@ -6149,10 +5681,7 @@
       <c r="E157" s="3">
         <v>1860.0</v>
       </c>
-      <c r="F157" s="3">
-        <f t="shared" si="1"/>
-        <v>2232</v>
-      </c>
+      <c r="F157" s="3"/>
       <c r="G157" s="2">
         <v>2.0</v>
       </c>
@@ -6174,10 +5703,7 @@
       <c r="E158" s="3">
         <v>78.92</v>
       </c>
-      <c r="F158" s="3">
-        <f t="shared" si="1"/>
-        <v>94.704</v>
-      </c>
+      <c r="F158" s="3"/>
       <c r="G158" s="2">
         <v>54.0</v>
       </c>
@@ -6201,10 +5727,7 @@
       <c r="E159" s="3">
         <v>22.0</v>
       </c>
-      <c r="F159" s="3">
-        <f t="shared" si="1"/>
-        <v>26.4</v>
-      </c>
+      <c r="F159" s="3"/>
       <c r="G159" s="2">
         <v>19.0</v>
       </c>
@@ -6226,10 +5749,7 @@
       <c r="E160" s="3">
         <v>136.864</v>
       </c>
-      <c r="F160" s="3">
-        <f t="shared" si="1"/>
-        <v>164.2368</v>
-      </c>
+      <c r="F160" s="3"/>
       <c r="G160" s="2">
         <v>12.0</v>
       </c>
@@ -6251,10 +5771,7 @@
       <c r="E161" s="3">
         <v>699.1525</v>
       </c>
-      <c r="F161" s="3">
-        <f t="shared" si="1"/>
-        <v>838.983</v>
-      </c>
+      <c r="F161" s="3"/>
       <c r="G161" s="2">
         <v>3.0</v>
       </c>
@@ -6276,10 +5793,7 @@
       <c r="E162" s="3">
         <v>124.57</v>
       </c>
-      <c r="F162" s="3">
-        <f t="shared" si="1"/>
-        <v>149.484</v>
-      </c>
+      <c r="F162" s="3"/>
       <c r="G162" s="2">
         <v>12.0</v>
       </c>
@@ -6303,10 +5817,7 @@
       <c r="E163" s="3">
         <v>143.0</v>
       </c>
-      <c r="F163" s="3">
-        <f t="shared" si="1"/>
-        <v>171.6</v>
-      </c>
+      <c r="F163" s="3"/>
       <c r="G163" s="2">
         <v>2.0</v>
       </c>
@@ -6330,10 +5841,7 @@
       <c r="E164" s="3">
         <v>144.72458</v>
       </c>
-      <c r="F164" s="3">
-        <f t="shared" si="1"/>
-        <v>173.669496</v>
-      </c>
+      <c r="F164" s="3"/>
       <c r="G164" s="2">
         <v>1.0</v>
       </c>
@@ -6355,10 +5863,7 @@
       <c r="E165" s="3">
         <v>481.0</v>
       </c>
-      <c r="F165" s="3">
-        <f t="shared" si="1"/>
-        <v>577.2</v>
-      </c>
+      <c r="F165" s="3"/>
       <c r="G165" s="2">
         <v>15.0</v>
       </c>
@@ -6380,10 +5885,7 @@
       <c r="E166" s="3">
         <v>6994.8</v>
       </c>
-      <c r="F166" s="3">
-        <f t="shared" si="1"/>
-        <v>8393.76</v>
-      </c>
+      <c r="F166" s="3"/>
       <c r="G166" s="2">
         <v>2.0</v>
       </c>
@@ -6405,10 +5907,7 @@
       <c r="E167" s="3">
         <v>700.0</v>
       </c>
-      <c r="F167" s="3">
-        <f t="shared" si="1"/>
-        <v>840</v>
-      </c>
+      <c r="F167" s="3"/>
       <c r="G167" s="2">
         <v>9.0</v>
       </c>
@@ -6430,10 +5929,7 @@
       <c r="E168" s="3">
         <v>70.0</v>
       </c>
-      <c r="F168" s="3">
-        <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
+      <c r="F168" s="3"/>
       <c r="G168" s="2">
         <v>10.0</v>
       </c>
@@ -6455,10 +5951,7 @@
       <c r="E169" s="3">
         <v>326.271</v>
       </c>
-      <c r="F169" s="3">
-        <f t="shared" si="1"/>
-        <v>391.5252</v>
-      </c>
+      <c r="F169" s="3"/>
       <c r="G169" s="2">
         <v>2.0</v>
       </c>
@@ -6480,10 +5973,7 @@
       <c r="E170" s="3">
         <v>6.6</v>
       </c>
-      <c r="F170" s="3">
-        <f t="shared" si="1"/>
-        <v>7.92</v>
-      </c>
+      <c r="F170" s="3"/>
       <c r="G170" s="2">
         <v>300.0</v>
       </c>
@@ -6505,10 +5995,7 @@
       <c r="E171" s="3">
         <v>22.0</v>
       </c>
-      <c r="F171" s="3">
-        <f t="shared" si="1"/>
-        <v>26.4</v>
-      </c>
+      <c r="F171" s="3"/>
       <c r="G171" s="2">
         <v>2.0</v>
       </c>
@@ -6530,10 +6017,7 @@
       <c r="E172" s="3">
         <v>550.0</v>
       </c>
-      <c r="F172" s="3">
-        <f t="shared" si="1"/>
-        <v>660</v>
-      </c>
+      <c r="F172" s="3"/>
       <c r="G172" s="2">
         <v>1.0</v>
       </c>
@@ -6555,10 +6039,7 @@
       <c r="E173" s="3">
         <v>1100.0</v>
       </c>
-      <c r="F173" s="3">
-        <f t="shared" si="1"/>
-        <v>1320</v>
-      </c>
+      <c r="F173" s="3"/>
       <c r="G173" s="2">
         <v>4.0</v>
       </c>
@@ -6580,10 +6061,7 @@
       <c r="E174" s="3">
         <v>1408.0</v>
       </c>
-      <c r="F174" s="3">
-        <f t="shared" si="1"/>
-        <v>1689.6</v>
-      </c>
+      <c r="F174" s="3"/>
       <c r="G174" s="2">
         <v>2.0</v>
       </c>
@@ -6605,10 +6083,7 @@
       <c r="E175" s="3">
         <v>2836.3192</v>
       </c>
-      <c r="F175" s="3">
-        <f t="shared" si="1"/>
-        <v>3403.58304</v>
-      </c>
+      <c r="F175" s="3"/>
       <c r="G175" s="2">
         <v>2.0</v>
       </c>
@@ -6630,10 +6105,7 @@
       <c r="E176" s="3">
         <v>253.0</v>
       </c>
-      <c r="F176" s="3">
-        <f t="shared" si="1"/>
-        <v>303.6</v>
-      </c>
+      <c r="F176" s="3"/>
       <c r="G176" s="2">
         <v>1.0</v>
       </c>
@@ -6655,10 +6127,7 @@
       <c r="E177" s="3">
         <v>2241.81</v>
       </c>
-      <c r="F177" s="3">
-        <f t="shared" si="1"/>
-        <v>2690.172</v>
-      </c>
+      <c r="F177" s="3"/>
       <c r="G177" s="2">
         <v>3.0</v>
       </c>
@@ -6680,10 +6149,7 @@
       <c r="E178" s="3">
         <v>979.0</v>
       </c>
-      <c r="F178" s="3">
-        <f t="shared" si="1"/>
-        <v>1174.8</v>
-      </c>
+      <c r="F178" s="3"/>
       <c r="G178" s="2">
         <v>2.0</v>
       </c>
@@ -6705,10 +6171,7 @@
       <c r="E179" s="3">
         <v>380.17188</v>
       </c>
-      <c r="F179" s="3">
-        <f t="shared" si="1"/>
-        <v>456.206256</v>
-      </c>
+      <c r="F179" s="3"/>
       <c r="G179" s="2">
         <v>5.0</v>
       </c>
@@ -6730,10 +6193,7 @@
       <c r="E180" s="3">
         <v>3546.848</v>
       </c>
-      <c r="F180" s="3">
-        <f t="shared" si="1"/>
-        <v>4256.2176</v>
-      </c>
+      <c r="F180" s="3"/>
       <c r="G180" s="2">
         <v>1.0</v>
       </c>
@@ -6755,10 +6215,7 @@
       <c r="E181" s="3">
         <v>1100.0</v>
       </c>
-      <c r="F181" s="3">
-        <f t="shared" si="1"/>
-        <v>1320</v>
-      </c>
+      <c r="F181" s="3"/>
       <c r="G181" s="2">
         <v>8.0</v>
       </c>
@@ -6780,10 +6237,7 @@
       <c r="E182" s="3">
         <v>1800.0</v>
       </c>
-      <c r="F182" s="3">
-        <f t="shared" si="1"/>
-        <v>2160</v>
-      </c>
+      <c r="F182" s="3"/>
       <c r="G182" s="2">
         <v>1.0</v>
       </c>
@@ -6805,10 +6259,7 @@
       <c r="E183" s="3">
         <v>148.0</v>
       </c>
-      <c r="F183" s="3">
-        <f t="shared" si="1"/>
-        <v>177.6</v>
-      </c>
+      <c r="F183" s="3"/>
       <c r="G183" s="2">
         <v>20.0</v>
       </c>
@@ -6830,10 +6281,7 @@
       <c r="E184" s="3">
         <v>27.5</v>
       </c>
-      <c r="F184" s="3">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
+      <c r="F184" s="3"/>
       <c r="G184" s="2">
         <v>7.0</v>
       </c>
@@ -6855,10 +6303,7 @@
       <c r="E185" s="3">
         <v>71.4</v>
       </c>
-      <c r="F185" s="3">
-        <f t="shared" si="1"/>
-        <v>85.68</v>
-      </c>
+      <c r="F185" s="3"/>
       <c r="G185" s="2">
         <v>10.0</v>
       </c>
@@ -6880,10 +6325,7 @@
       <c r="E186" s="3">
         <v>5508.48</v>
       </c>
-      <c r="F186" s="3">
-        <f t="shared" si="1"/>
-        <v>6610.176</v>
-      </c>
+      <c r="F186" s="3"/>
       <c r="G186" s="2">
         <v>3.0</v>
       </c>
@@ -6905,10 +6347,7 @@
       <c r="E187" s="3">
         <v>794.101</v>
       </c>
-      <c r="F187" s="3">
-        <f t="shared" si="1"/>
-        <v>952.9212</v>
-      </c>
+      <c r="F187" s="3"/>
       <c r="G187" s="2">
         <v>1.0</v>
       </c>
@@ -6932,10 +6371,7 @@
       <c r="E188" s="3">
         <v>163.306</v>
       </c>
-      <c r="F188" s="3">
-        <f t="shared" si="1"/>
-        <v>195.9672</v>
-      </c>
+      <c r="F188" s="3"/>
       <c r="G188" s="2">
         <v>8.0</v>
       </c>
@@ -6957,10 +6393,7 @@
       <c r="E189" s="3">
         <v>46.11</v>
       </c>
-      <c r="F189" s="3">
-        <f t="shared" si="1"/>
-        <v>55.332</v>
-      </c>
+      <c r="F189" s="3"/>
       <c r="G189" s="2">
         <v>20.0</v>
       </c>
@@ -6984,10 +6417,7 @@
       <c r="E190" s="3">
         <v>314.325</v>
       </c>
-      <c r="F190" s="3">
-        <f t="shared" si="1"/>
-        <v>377.19</v>
-      </c>
+      <c r="F190" s="3"/>
       <c r="G190" s="2">
         <v>1.0</v>
       </c>
@@ -7011,10 +6441,7 @@
       <c r="E191" s="3">
         <v>154.759</v>
       </c>
-      <c r="F191" s="3">
-        <f t="shared" si="1"/>
-        <v>185.7108</v>
-      </c>
+      <c r="F191" s="3"/>
       <c r="G191" s="2">
         <v>5.0</v>
       </c>
@@ -7038,10 +6465,7 @@
       <c r="E192" s="3">
         <v>749.738</v>
       </c>
-      <c r="F192" s="3">
-        <f t="shared" si="1"/>
-        <v>899.6856</v>
-      </c>
+      <c r="F192" s="3"/>
       <c r="G192" s="2">
         <v>1.0</v>
       </c>
@@ -7065,10 +6489,7 @@
       <c r="E193" s="3">
         <v>862.29</v>
       </c>
-      <c r="F193" s="3">
-        <f t="shared" si="1"/>
-        <v>1034.748</v>
-      </c>
+      <c r="F193" s="3"/>
       <c r="G193" s="2">
         <v>1.0</v>
       </c>
@@ -7090,10 +6511,7 @@
       <c r="E194" s="3">
         <v>5686.44068</v>
       </c>
-      <c r="F194" s="3">
-        <f t="shared" si="1"/>
-        <v>6823.728816</v>
-      </c>
+      <c r="F194" s="3"/>
       <c r="G194" s="2">
         <v>1.0</v>
       </c>
@@ -7117,10 +6535,7 @@
       <c r="E195" s="3">
         <v>275.7183</v>
       </c>
-      <c r="F195" s="3">
-        <f t="shared" si="1"/>
-        <v>330.86196</v>
-      </c>
+      <c r="F195" s="3"/>
       <c r="G195" s="2">
         <v>4.0</v>
       </c>
@@ -7142,10 +6557,7 @@
       <c r="E196" s="3">
         <v>1367.5</v>
       </c>
-      <c r="F196" s="3">
-        <f t="shared" si="1"/>
-        <v>1641</v>
-      </c>
+      <c r="F196" s="3"/>
       <c r="G196" s="2">
         <v>4.0</v>
       </c>
@@ -7167,10 +6579,7 @@
       <c r="E197" s="3">
         <v>504.24</v>
       </c>
-      <c r="F197" s="3">
-        <f t="shared" si="1"/>
-        <v>605.088</v>
-      </c>
+      <c r="F197" s="3"/>
       <c r="G197" s="2">
         <v>2.0</v>
       </c>
@@ -7192,10 +6601,7 @@
       <c r="E198" s="3">
         <v>599.1526</v>
       </c>
-      <c r="F198" s="3">
-        <f t="shared" si="1"/>
-        <v>718.98312</v>
-      </c>
+      <c r="F198" s="3"/>
       <c r="G198" s="2">
         <v>3.0</v>
       </c>
@@ -7217,10 +6623,7 @@
       <c r="E199" s="3">
         <v>644.305</v>
       </c>
-      <c r="F199" s="3">
-        <f t="shared" si="1"/>
-        <v>773.166</v>
-      </c>
+      <c r="F199" s="3"/>
       <c r="G199" s="2">
         <v>3.0</v>
       </c>
@@ -7244,10 +6647,7 @@
       <c r="E200" s="3">
         <v>731.88</v>
       </c>
-      <c r="F200" s="3">
-        <f t="shared" si="1"/>
-        <v>878.256</v>
-      </c>
+      <c r="F200" s="3"/>
       <c r="G200" s="2">
         <v>2.0</v>
       </c>
@@ -7271,10 +6671,7 @@
       <c r="E201" s="3">
         <v>762.5</v>
       </c>
-      <c r="F201" s="3">
-        <f t="shared" si="1"/>
-        <v>915</v>
-      </c>
+      <c r="F201" s="3"/>
       <c r="G201" s="2">
         <v>4.0</v>
       </c>
@@ -7298,10 +6695,7 @@
       <c r="E202" s="3">
         <v>716.15</v>
       </c>
-      <c r="F202" s="3">
-        <f t="shared" si="1"/>
-        <v>859.38</v>
-      </c>
+      <c r="F202" s="3"/>
       <c r="G202" s="2">
         <v>2.0</v>
       </c>
@@ -7323,10 +6717,7 @@
       <c r="E203" s="3">
         <v>840.0</v>
       </c>
-      <c r="F203" s="3">
-        <f t="shared" si="1"/>
-        <v>1008</v>
-      </c>
+      <c r="F203" s="3"/>
       <c r="G203" s="2">
         <v>3.0</v>
       </c>
@@ -7348,10 +6739,7 @@
       <c r="E204" s="3">
         <v>732.4406</v>
       </c>
-      <c r="F204" s="3">
-        <f t="shared" si="1"/>
-        <v>878.92872</v>
-      </c>
+      <c r="F204" s="3"/>
       <c r="G204" s="2">
         <v>3.0</v>
       </c>
@@ -7375,10 +6763,7 @@
       <c r="E205" s="3">
         <v>122.7</v>
       </c>
-      <c r="F205" s="3">
-        <f t="shared" si="1"/>
-        <v>147.24</v>
-      </c>
+      <c r="F205" s="3"/>
       <c r="G205" s="2">
         <v>5.0</v>
       </c>
@@ -7402,10 +6787,7 @@
       <c r="E206" s="3">
         <v>610.46</v>
       </c>
-      <c r="F206" s="3">
-        <f t="shared" si="1"/>
-        <v>732.552</v>
-      </c>
+      <c r="F206" s="3"/>
       <c r="G206" s="2">
         <v>2.0</v>
       </c>
@@ -7429,10 +6811,7 @@
       <c r="E207" s="3">
         <v>734.271</v>
       </c>
-      <c r="F207" s="3">
-        <f t="shared" si="1"/>
-        <v>881.1252</v>
-      </c>
+      <c r="F207" s="3"/>
       <c r="G207" s="2">
         <v>4.0</v>
       </c>
@@ -7456,10 +6835,7 @@
       <c r="E208" s="3">
         <v>258.225</v>
       </c>
-      <c r="F208" s="3">
-        <f t="shared" si="1"/>
-        <v>309.87</v>
-      </c>
+      <c r="F208" s="3"/>
       <c r="G208" s="2">
         <v>1.0</v>
       </c>
@@ -7483,10 +6859,7 @@
       <c r="E209" s="3">
         <v>139.832</v>
       </c>
-      <c r="F209" s="3">
-        <f t="shared" si="1"/>
-        <v>167.7984</v>
-      </c>
+      <c r="F209" s="3"/>
       <c r="G209" s="2">
         <v>1.0</v>
       </c>
@@ -7508,10 +6881,7 @@
       <c r="E210" s="3">
         <v>674.0</v>
       </c>
-      <c r="F210" s="3">
-        <f t="shared" si="1"/>
-        <v>808.8</v>
-      </c>
+      <c r="F210" s="3"/>
       <c r="G210" s="2">
         <v>4.0</v>
       </c>
@@ -7533,10 +6903,7 @@
       <c r="E211" s="3">
         <v>574.52</v>
       </c>
-      <c r="F211" s="3">
-        <f t="shared" si="1"/>
-        <v>689.424</v>
-      </c>
+      <c r="F211" s="3"/>
       <c r="G211" s="2">
         <v>3.0</v>
       </c>
@@ -7558,10 +6925,7 @@
       <c r="E212" s="3">
         <v>783.56</v>
       </c>
-      <c r="F212" s="3">
-        <f t="shared" si="1"/>
-        <v>940.272</v>
-      </c>
+      <c r="F212" s="3"/>
       <c r="G212" s="2">
         <v>2.0</v>
       </c>
@@ -7583,10 +6947,7 @@
       <c r="E213" s="3">
         <v>375.4238</v>
       </c>
-      <c r="F213" s="3">
-        <f t="shared" si="1"/>
-        <v>450.50856</v>
-      </c>
+      <c r="F213" s="3"/>
       <c r="G213" s="2">
         <v>2.0</v>
       </c>
@@ -7610,10 +6971,7 @@
       <c r="E214" s="3">
         <v>457.68</v>
       </c>
-      <c r="F214" s="3">
-        <f t="shared" si="1"/>
-        <v>549.216</v>
-      </c>
+      <c r="F214" s="3"/>
       <c r="G214" s="2">
         <v>3.0</v>
       </c>
@@ -7635,10 +6993,7 @@
       <c r="E215" s="3">
         <v>555.02542</v>
       </c>
-      <c r="F215" s="3">
-        <f t="shared" si="1"/>
-        <v>666.030504</v>
-      </c>
+      <c r="F215" s="3"/>
       <c r="G215" s="2">
         <v>4.0</v>
       </c>
@@ -7662,10 +7017,7 @@
       <c r="E216" s="3">
         <v>982.0</v>
       </c>
-      <c r="F216" s="3">
-        <f t="shared" si="1"/>
-        <v>1178.4</v>
-      </c>
+      <c r="F216" s="3"/>
       <c r="G216" s="2">
         <v>4.0</v>
       </c>
@@ -7689,10 +7041,7 @@
       <c r="E217" s="3">
         <v>357.456</v>
       </c>
-      <c r="F217" s="3">
-        <f t="shared" si="1"/>
-        <v>428.9472</v>
-      </c>
+      <c r="F217" s="3"/>
       <c r="G217" s="2">
         <v>5.0</v>
       </c>
@@ -7714,10 +7063,7 @@
       <c r="E218" s="3">
         <v>22.0</v>
       </c>
-      <c r="F218" s="3">
-        <f t="shared" si="1"/>
-        <v>26.4</v>
-      </c>
+      <c r="F218" s="3"/>
       <c r="G218" s="2">
         <v>1.0</v>
       </c>
@@ -7741,10 +7087,7 @@
       <c r="E219" s="3">
         <v>18.64407</v>
       </c>
-      <c r="F219" s="3">
-        <f t="shared" si="1"/>
-        <v>22.372884</v>
-      </c>
+      <c r="F219" s="3"/>
       <c r="G219" s="2">
         <v>434.0</v>
       </c>
@@ -7768,10 +7111,7 @@
       <c r="E220" s="3">
         <v>60.5</v>
       </c>
-      <c r="F220" s="3">
-        <f t="shared" si="1"/>
-        <v>72.6</v>
-      </c>
+      <c r="F220" s="3"/>
       <c r="G220" s="2">
         <v>1.0</v>
       </c>
@@ -7793,10 +7133,7 @@
       <c r="E221" s="3">
         <v>550.0</v>
       </c>
-      <c r="F221" s="3">
-        <f t="shared" si="1"/>
-        <v>660</v>
-      </c>
+      <c r="F221" s="3"/>
       <c r="G221" s="2">
         <v>1.0</v>
       </c>
@@ -7815,10 +7152,7 @@
       <c r="E222" s="3">
         <v>140.0</v>
       </c>
-      <c r="F222" s="3">
-        <f t="shared" si="1"/>
-        <v>168</v>
-      </c>
+      <c r="F222" s="3"/>
       <c r="G222" s="2">
         <v>57.0</v>
       </c>
@@ -7837,10 +7171,7 @@
       <c r="E223" s="3">
         <v>536.7795</v>
       </c>
-      <c r="F223" s="3">
-        <f t="shared" si="1"/>
-        <v>644.1354</v>
-      </c>
+      <c r="F223" s="3"/>
       <c r="G223" s="2">
         <v>3.0</v>
       </c>
@@ -7864,10 +7195,7 @@
       <c r="E224" s="3">
         <v>44.7447</v>
       </c>
-      <c r="F224" s="3">
-        <f t="shared" si="1"/>
-        <v>53.69364</v>
-      </c>
+      <c r="F224" s="3"/>
       <c r="G224" s="2">
         <v>7.0</v>
       </c>
@@ -7891,10 +7219,7 @@
       <c r="E225" s="3">
         <v>23.254</v>
       </c>
-      <c r="F225" s="3">
-        <f t="shared" si="1"/>
-        <v>27.9048</v>
-      </c>
+      <c r="F225" s="3"/>
       <c r="G225" s="2">
         <v>3.0</v>
       </c>
@@ -7916,10 +7241,7 @@
       <c r="E226" s="3">
         <v>1006.27263</v>
       </c>
-      <c r="F226" s="3">
-        <f t="shared" si="1"/>
-        <v>1207.527156</v>
-      </c>
+      <c r="F226" s="3"/>
       <c r="G226" s="2">
         <v>1.0</v>
       </c>
@@ -7941,10 +7263,7 @@
       <c r="E227" s="3">
         <v>40.0</v>
       </c>
-      <c r="F227" s="3">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
+      <c r="F227" s="3"/>
       <c r="G227" s="2">
         <v>45.0</v>
       </c>
@@ -7966,10 +7285,7 @@
       <c r="E228" s="3">
         <v>113.9787</v>
       </c>
-      <c r="F228" s="3">
-        <f t="shared" si="1"/>
-        <v>136.77444</v>
-      </c>
+      <c r="F228" s="3"/>
       <c r="G228" s="2">
         <v>40.0</v>
       </c>
@@ -7991,10 +7307,7 @@
       <c r="E229" s="3">
         <v>414.8309</v>
       </c>
-      <c r="F229" s="3">
-        <f t="shared" si="1"/>
-        <v>497.79708</v>
-      </c>
+      <c r="F229" s="3"/>
       <c r="G229" s="2">
         <v>8.0</v>
       </c>
@@ -8016,10 +7329,7 @@
       <c r="E230" s="3">
         <v>382.2038</v>
       </c>
-      <c r="F230" s="3">
-        <f t="shared" si="1"/>
-        <v>458.64456</v>
-      </c>
+      <c r="F230" s="3"/>
       <c r="G230" s="2">
         <v>2.0</v>
       </c>
@@ -8041,10 +7351,7 @@
       <c r="E231" s="3">
         <v>382.2038</v>
       </c>
-      <c r="F231" s="3">
-        <f t="shared" si="1"/>
-        <v>458.64456</v>
-      </c>
+      <c r="F231" s="3"/>
       <c r="G231" s="2">
         <v>9.0</v>
       </c>
@@ -8068,10 +7375,7 @@
       <c r="E232" s="3">
         <v>602.195</v>
       </c>
-      <c r="F232" s="3">
-        <f t="shared" si="1"/>
-        <v>722.634</v>
-      </c>
+      <c r="F232" s="3"/>
       <c r="G232" s="2">
         <v>2.0</v>
       </c>
@@ -8095,10 +7399,7 @@
       <c r="E233" s="3">
         <v>548.13</v>
       </c>
-      <c r="F233" s="3">
-        <f t="shared" si="1"/>
-        <v>657.756</v>
-      </c>
+      <c r="F233" s="3"/>
       <c r="G233" s="2">
         <v>72.0</v>
       </c>
@@ -8122,10 +7423,7 @@
       <c r="E234" s="3">
         <v>279.653</v>
       </c>
-      <c r="F234" s="3">
-        <f t="shared" si="1"/>
-        <v>335.5836</v>
-      </c>
+      <c r="F234" s="3"/>
       <c r="G234" s="2">
         <v>123.0</v>
       </c>
@@ -8149,10 +7447,7 @@
       <c r="E235" s="3">
         <v>720.005</v>
       </c>
-      <c r="F235" s="3">
-        <f t="shared" si="1"/>
-        <v>864.006</v>
-      </c>
+      <c r="F235" s="3"/>
       <c r="G235" s="2">
         <v>1.0</v>
       </c>
@@ -8174,10 +7469,7 @@
       <c r="E236" s="3">
         <v>1715.285</v>
       </c>
-      <c r="F236" s="3">
-        <f t="shared" si="1"/>
-        <v>2058.342</v>
-      </c>
+      <c r="F236" s="3"/>
       <c r="G236" s="2">
         <v>1.0</v>
       </c>
@@ -8199,10 +7491,7 @@
       <c r="E237" s="3">
         <v>2371.6</v>
       </c>
-      <c r="F237" s="3">
-        <f t="shared" si="1"/>
-        <v>2845.92</v>
-      </c>
+      <c r="F237" s="3"/>
       <c r="G237" s="2">
         <v>2.0</v>
       </c>
@@ -8226,10 +7515,7 @@
       <c r="E238" s="3">
         <v>231.66</v>
       </c>
-      <c r="F238" s="3">
-        <f t="shared" si="1"/>
-        <v>277.992</v>
-      </c>
+      <c r="F238" s="3"/>
       <c r="G238" s="2">
         <v>10.0</v>
       </c>
@@ -8248,10 +7534,7 @@
       <c r="E239" s="3">
         <v>600.0</v>
       </c>
-      <c r="F239" s="3">
-        <f t="shared" si="1"/>
-        <v>720</v>
-      </c>
+      <c r="F239" s="3"/>
       <c r="G239" s="2">
         <v>3.0</v>
       </c>
@@ -8273,10 +7556,7 @@
       <c r="E240" s="3">
         <v>8865.0</v>
       </c>
-      <c r="F240" s="3">
-        <f t="shared" si="1"/>
-        <v>10638</v>
-      </c>
+      <c r="F240" s="3"/>
       <c r="G240" s="2">
         <v>3.0</v>
       </c>
@@ -8300,10 +7580,7 @@
       <c r="E241" s="3">
         <v>1553.72</v>
       </c>
-      <c r="F241" s="3">
-        <f t="shared" si="1"/>
-        <v>1864.464</v>
-      </c>
+      <c r="F241" s="3"/>
       <c r="G241" s="2">
         <v>2.0</v>
       </c>
@@ -8327,10 +7604,7 @@
       <c r="E242" s="3">
         <v>583.0</v>
       </c>
-      <c r="F242" s="3">
-        <f t="shared" si="1"/>
-        <v>699.6</v>
-      </c>
+      <c r="F242" s="3"/>
       <c r="G242" s="2">
         <v>2.0</v>
       </c>
@@ -8354,10 +7628,7 @@
       <c r="E243" s="3">
         <v>1433.52</v>
       </c>
-      <c r="F243" s="3">
-        <f t="shared" si="1"/>
-        <v>1720.224</v>
-      </c>
+      <c r="F243" s="3"/>
       <c r="G243" s="2">
         <v>2.0</v>
       </c>
@@ -8381,10 +7652,7 @@
       <c r="E244" s="3">
         <v>460.9</v>
       </c>
-      <c r="F244" s="3">
-        <f t="shared" si="1"/>
-        <v>553.08</v>
-      </c>
+      <c r="F244" s="3"/>
       <c r="G244" s="2">
         <v>2.0</v>
       </c>
@@ -8408,10 +7676,7 @@
       <c r="E245" s="3">
         <v>889.0</v>
       </c>
-      <c r="F245" s="3">
-        <f t="shared" si="1"/>
-        <v>1066.8</v>
-      </c>
+      <c r="F245" s="3"/>
       <c r="G245" s="2">
         <v>1.0</v>
       </c>
@@ -8433,10 +7698,7 @@
       <c r="E246" s="3">
         <v>2185.04</v>
       </c>
-      <c r="F246" s="3">
-        <f t="shared" si="1"/>
-        <v>2622.048</v>
-      </c>
+      <c r="F246" s="3"/>
       <c r="G246" s="2">
         <v>1.0</v>
       </c>
@@ -8458,10 +7720,7 @@
       <c r="E247" s="3">
         <v>1525.23</v>
       </c>
-      <c r="F247" s="3">
-        <f t="shared" si="1"/>
-        <v>1830.276</v>
-      </c>
+      <c r="F247" s="3"/>
       <c r="G247" s="2">
         <v>1.0</v>
       </c>
@@ -8483,10 +7742,7 @@
       <c r="E248" s="3">
         <v>110.0</v>
       </c>
-      <c r="F248" s="3">
-        <f t="shared" si="1"/>
-        <v>132</v>
-      </c>
+      <c r="F248" s="3"/>
       <c r="G248" s="2">
         <v>6.0</v>
       </c>
@@ -8510,10 +7766,7 @@
       <c r="E249" s="3">
         <v>1076.9</v>
       </c>
-      <c r="F249" s="3">
-        <f t="shared" si="1"/>
-        <v>1292.28</v>
-      </c>
+      <c r="F249" s="3"/>
       <c r="G249" s="2">
         <v>9.0</v>
       </c>
@@ -8537,10 +7790,7 @@
       <c r="E250" s="3">
         <v>1017.445</v>
       </c>
-      <c r="F250" s="3">
-        <f t="shared" si="1"/>
-        <v>1220.934</v>
-      </c>
+      <c r="F250" s="3"/>
       <c r="G250" s="2">
         <v>21.0</v>
       </c>
@@ -8564,10 +7814,7 @@
       <c r="E251" s="3">
         <v>1017.445</v>
       </c>
-      <c r="F251" s="3">
-        <f t="shared" si="1"/>
-        <v>1220.934</v>
-      </c>
+      <c r="F251" s="3"/>
       <c r="G251" s="2">
         <v>39.0</v>
       </c>
@@ -8589,10 +7836,7 @@
       <c r="E252" s="3">
         <v>2249.39</v>
       </c>
-      <c r="F252" s="3">
-        <f t="shared" si="1"/>
-        <v>2699.268</v>
-      </c>
+      <c r="F252" s="3"/>
       <c r="G252" s="2">
         <v>1.0</v>
       </c>
@@ -8614,10 +7858,7 @@
       <c r="E253" s="3">
         <v>2044.25</v>
       </c>
-      <c r="F253" s="3">
-        <f t="shared" si="1"/>
-        <v>2453.1</v>
-      </c>
+      <c r="F253" s="3"/>
       <c r="G253" s="2">
         <v>2.0</v>
       </c>
@@ -8639,10 +7880,7 @@
       <c r="E254" s="3">
         <v>22580.415</v>
       </c>
-      <c r="F254" s="3">
-        <f t="shared" si="1"/>
-        <v>27096.498</v>
-      </c>
+      <c r="F254" s="3"/>
       <c r="G254" s="2">
         <v>1.0</v>
       </c>
@@ -8664,10 +7902,7 @@
       <c r="E255" s="3">
         <v>2179.43</v>
       </c>
-      <c r="F255" s="3">
-        <f t="shared" si="1"/>
-        <v>2615.316</v>
-      </c>
+      <c r="F255" s="3"/>
       <c r="G255" s="2">
         <v>1.0</v>
       </c>
@@ -8689,10 +7924,7 @@
       <c r="E256" s="3">
         <v>1274.0</v>
       </c>
-      <c r="F256" s="3">
-        <f t="shared" si="1"/>
-        <v>1528.8</v>
-      </c>
+      <c r="F256" s="3"/>
       <c r="G256" s="2">
         <v>1.0</v>
       </c>
@@ -8714,10 +7946,7 @@
       <c r="E257" s="3">
         <v>1700.0</v>
       </c>
-      <c r="F257" s="3">
-        <f t="shared" si="1"/>
-        <v>2040</v>
-      </c>
+      <c r="F257" s="3"/>
       <c r="G257" s="2">
         <v>5.0</v>
       </c>
@@ -8741,10 +7970,7 @@
       <c r="E258" s="3">
         <v>1279.135</v>
       </c>
-      <c r="F258" s="3">
-        <f t="shared" si="1"/>
-        <v>1534.962</v>
-      </c>
+      <c r="F258" s="3"/>
       <c r="G258" s="2">
         <v>2.0</v>
       </c>
@@ -8768,10 +7994,7 @@
       <c r="E259" s="3">
         <v>1848.0</v>
       </c>
-      <c r="F259" s="3">
-        <f t="shared" si="1"/>
-        <v>2217.6</v>
-      </c>
+      <c r="F259" s="3"/>
       <c r="G259" s="2">
         <v>2.0</v>
       </c>
@@ -8795,10 +8018,7 @@
       <c r="E260" s="3">
         <v>1278.42</v>
       </c>
-      <c r="F260" s="3">
-        <f t="shared" si="1"/>
-        <v>1534.104</v>
-      </c>
+      <c r="F260" s="3"/>
       <c r="G260" s="2">
         <v>1.0</v>
       </c>
@@ -8822,10 +8042,7 @@
       <c r="E261" s="3">
         <v>1249.105</v>
       </c>
-      <c r="F261" s="3">
-        <f t="shared" si="1"/>
-        <v>1498.926</v>
-      </c>
+      <c r="F261" s="3"/>
       <c r="G261" s="2">
         <v>8.0</v>
       </c>
@@ -8849,10 +8066,7 @@
       <c r="E262" s="3">
         <v>22.0</v>
       </c>
-      <c r="F262" s="3">
-        <f t="shared" si="1"/>
-        <v>26.4</v>
-      </c>
+      <c r="F262" s="3"/>
       <c r="G262" s="2">
         <v>13.0</v>
       </c>
@@ -8871,10 +8085,7 @@
       <c r="E263" s="3">
         <v>600.0</v>
       </c>
-      <c r="F263" s="3">
-        <f t="shared" si="1"/>
-        <v>720</v>
-      </c>
+      <c r="F263" s="3"/>
       <c r="G263" s="2">
         <v>2.0</v>
       </c>
@@ -8896,10 +8107,7 @@
       <c r="E264" s="3">
         <v>2950.0</v>
       </c>
-      <c r="F264" s="3">
-        <f t="shared" si="1"/>
-        <v>3540</v>
-      </c>
+      <c r="F264" s="3"/>
       <c r="G264" s="2">
         <v>1.0</v>
       </c>
@@ -8921,10 +8129,7 @@
       <c r="E265" s="3">
         <v>1284.855</v>
       </c>
-      <c r="F265" s="3">
-        <f t="shared" si="1"/>
-        <v>1541.826</v>
-      </c>
+      <c r="F265" s="3"/>
       <c r="G265" s="2">
         <v>4.0</v>
       </c>
@@ -8946,10 +8151,7 @@
       <c r="E266" s="3">
         <v>1118.64407</v>
       </c>
-      <c r="F266" s="3">
-        <f t="shared" si="1"/>
-        <v>1342.372884</v>
-      </c>
+      <c r="F266" s="3"/>
       <c r="G266" s="2">
         <v>1.0</v>
       </c>
@@ -8973,10 +8175,7 @@
       <c r="E267" s="3">
         <v>928.07</v>
       </c>
-      <c r="F267" s="3">
-        <f t="shared" si="1"/>
-        <v>1113.684</v>
-      </c>
+      <c r="F267" s="3"/>
       <c r="G267" s="2">
         <v>15.0</v>
       </c>
@@ -9000,10 +8199,7 @@
       <c r="E268" s="3">
         <v>928.785</v>
       </c>
-      <c r="F268" s="3">
-        <f t="shared" si="1"/>
-        <v>1114.542</v>
-      </c>
+      <c r="F268" s="3"/>
       <c r="G268" s="2">
         <v>24.0</v>
       </c>
@@ -9025,10 +8221,7 @@
       <c r="E269" s="3">
         <v>1968.395</v>
       </c>
-      <c r="F269" s="3">
-        <f t="shared" si="1"/>
-        <v>2362.074</v>
-      </c>
+      <c r="F269" s="3"/>
       <c r="G269" s="2">
         <v>1.0</v>
       </c>
@@ -9050,10 +8243,7 @@
       <c r="E270" s="3">
         <v>1969.11</v>
       </c>
-      <c r="F270" s="3">
-        <f t="shared" si="1"/>
-        <v>2362.932</v>
-      </c>
+      <c r="F270" s="3"/>
       <c r="G270" s="2">
         <v>4.0</v>
       </c>
@@ -9075,10 +8265,7 @@
       <c r="E271" s="3">
         <v>9083.0</v>
       </c>
-      <c r="F271" s="3">
-        <f t="shared" si="1"/>
-        <v>10899.6</v>
-      </c>
+      <c r="F271" s="3"/>
       <c r="G271" s="2">
         <v>1.0</v>
       </c>
@@ -9100,10 +8287,7 @@
       <c r="E272" s="3">
         <v>5898.035</v>
       </c>
-      <c r="F272" s="3">
-        <f t="shared" si="1"/>
-        <v>7077.642</v>
-      </c>
+      <c r="F272" s="3"/>
       <c r="G272" s="2">
         <v>2.0</v>
       </c>
@@ -9127,10 +8311,7 @@
       <c r="E273" s="3">
         <v>5669.49153</v>
       </c>
-      <c r="F273" s="3">
-        <f t="shared" si="1"/>
-        <v>6803.389836</v>
-      </c>
+      <c r="F273" s="3"/>
       <c r="G273" s="2">
         <v>2.0</v>
       </c>
@@ -9152,10 +8333,7 @@
       <c r="E274" s="3">
         <v>249.0</v>
       </c>
-      <c r="F274" s="3">
-        <f t="shared" si="1"/>
-        <v>298.8</v>
-      </c>
+      <c r="F274" s="3"/>
       <c r="G274" s="2">
         <v>10.0</v>
       </c>
@@ -9177,10 +8355,7 @@
       <c r="E275" s="3">
         <v>1650.0</v>
       </c>
-      <c r="F275" s="3">
-        <f t="shared" si="1"/>
-        <v>1980</v>
-      </c>
+      <c r="F275" s="3"/>
       <c r="G275" s="2">
         <v>8.0</v>
       </c>
@@ -9204,10 +8379,7 @@
       <c r="E276" s="3">
         <v>11.18644</v>
       </c>
-      <c r="F276" s="3">
-        <f t="shared" si="1"/>
-        <v>13.423728</v>
-      </c>
+      <c r="F276" s="3"/>
       <c r="G276" s="2">
         <v>5.0</v>
       </c>
@@ -9231,10 +8403,7 @@
       <c r="E277" s="3">
         <v>83.6</v>
       </c>
-      <c r="F277" s="3">
-        <f t="shared" si="1"/>
-        <v>100.32</v>
-      </c>
+      <c r="F277" s="3"/>
       <c r="G277" s="2">
         <v>21.0</v>
       </c>
@@ -9258,10 +8427,7 @@
       <c r="E278" s="3">
         <v>363.0</v>
       </c>
-      <c r="F278" s="3">
-        <f t="shared" si="1"/>
-        <v>435.6</v>
-      </c>
+      <c r="F278" s="3"/>
       <c r="G278" s="2">
         <v>19.0</v>
       </c>
@@ -9285,10 +8451,7 @@
       <c r="E279" s="3">
         <v>396.0</v>
       </c>
-      <c r="F279" s="3">
-        <f t="shared" si="1"/>
-        <v>475.2</v>
-      </c>
+      <c r="F279" s="3"/>
       <c r="G279" s="2">
         <v>122.0</v>
       </c>
@@ -9312,10 +8475,7 @@
       <c r="E280" s="3">
         <v>853.65</v>
       </c>
-      <c r="F280" s="3">
-        <f t="shared" si="1"/>
-        <v>1024.38</v>
-      </c>
+      <c r="F280" s="3"/>
       <c r="G280" s="2">
         <v>19.0</v>
       </c>
@@ -9337,10 +8497,7 @@
       <c r="E281" s="3">
         <v>2602.0</v>
       </c>
-      <c r="F281" s="3">
-        <f t="shared" si="1"/>
-        <v>3122.4</v>
-      </c>
+      <c r="F281" s="3"/>
       <c r="G281" s="2">
         <v>2.0</v>
       </c>
@@ -9362,10 +8519,7 @@
       <c r="E282" s="3">
         <v>2059.0</v>
       </c>
-      <c r="F282" s="3">
-        <f t="shared" si="1"/>
-        <v>2470.8</v>
-      </c>
+      <c r="F282" s="3"/>
       <c r="G282" s="2">
         <v>1.0</v>
       </c>
@@ -9387,10 +8541,7 @@
       <c r="E283" s="3">
         <v>2498.925</v>
       </c>
-      <c r="F283" s="3">
-        <f t="shared" si="1"/>
-        <v>2998.71</v>
-      </c>
+      <c r="F283" s="3"/>
       <c r="G283" s="2">
         <v>21.0</v>
       </c>
@@ -9412,10 +8563,7 @@
       <c r="E284" s="3">
         <v>8409.115</v>
       </c>
-      <c r="F284" s="3">
-        <f t="shared" si="1"/>
-        <v>10090.938</v>
-      </c>
+      <c r="F284" s="3"/>
       <c r="G284" s="2">
         <v>3.0</v>
       </c>
@@ -9437,10 +8585,7 @@
       <c r="E285" s="3">
         <v>908.8992</v>
       </c>
-      <c r="F285" s="3">
-        <f t="shared" si="1"/>
-        <v>1090.67904</v>
-      </c>
+      <c r="F285" s="3"/>
       <c r="G285" s="2">
         <v>7.0</v>
       </c>
@@ -9462,10 +8607,7 @@
       <c r="E286" s="3">
         <v>1854.42</v>
       </c>
-      <c r="F286" s="3">
-        <f t="shared" si="1"/>
-        <v>2225.304</v>
-      </c>
+      <c r="F286" s="3"/>
       <c r="G286" s="2">
         <v>1.0</v>
       </c>
@@ -9489,10 +8631,7 @@
       <c r="E287" s="3">
         <v>1049.0</v>
       </c>
-      <c r="F287" s="3">
-        <f t="shared" si="1"/>
-        <v>1258.8</v>
-      </c>
+      <c r="F287" s="3"/>
       <c r="G287" s="2">
         <v>17.0</v>
       </c>
@@ -9514,10 +8653,7 @@
       <c r="E288" s="3">
         <v>3740.0</v>
       </c>
-      <c r="F288" s="3">
-        <f t="shared" si="1"/>
-        <v>4488</v>
-      </c>
+      <c r="F288" s="3"/>
       <c r="G288" s="2">
         <v>1.0</v>
       </c>
@@ -9539,10 +8675,7 @@
       <c r="E289" s="3">
         <v>1870.93221</v>
       </c>
-      <c r="F289" s="3">
-        <f t="shared" si="1"/>
-        <v>2245.118652</v>
-      </c>
+      <c r="F289" s="3"/>
       <c r="G289" s="2">
         <v>3.0</v>
       </c>
@@ -9561,10 +8694,7 @@
       <c r="E290" s="3">
         <v>349.0</v>
       </c>
-      <c r="F290" s="3">
-        <f t="shared" si="1"/>
-        <v>418.8</v>
-      </c>
+      <c r="F290" s="3"/>
       <c r="G290" s="2">
         <v>19.0</v>
       </c>
@@ -9588,10 +8718,7 @@
       <c r="E291" s="3">
         <v>501.996</v>
       </c>
-      <c r="F291" s="3">
-        <f t="shared" si="1"/>
-        <v>602.3952</v>
-      </c>
+      <c r="F291" s="3"/>
       <c r="G291" s="2">
         <v>3.0</v>
       </c>
@@ -9613,10 +8740,7 @@
       <c r="E292" s="3">
         <v>233.2341</v>
       </c>
-      <c r="F292" s="3">
-        <f t="shared" si="1"/>
-        <v>279.88092</v>
-      </c>
+      <c r="F292" s="3"/>
       <c r="G292" s="2">
         <v>10.0</v>
       </c>
@@ -9640,10 +8764,7 @@
       <c r="E293" s="3">
         <v>152.9506</v>
       </c>
-      <c r="F293" s="3">
-        <f t="shared" si="1"/>
-        <v>183.54072</v>
-      </c>
+      <c r="F293" s="3"/>
       <c r="G293" s="2">
         <v>5.0</v>
       </c>
@@ -9665,10 +8786,7 @@
       <c r="E294" s="3">
         <v>169.246</v>
       </c>
-      <c r="F294" s="3">
-        <f t="shared" si="1"/>
-        <v>203.0952</v>
-      </c>
+      <c r="F294" s="3"/>
       <c r="G294" s="2">
         <v>10.0</v>
       </c>
@@ -9690,10 +8808,7 @@
       <c r="E295" s="3">
         <v>519.72</v>
       </c>
-      <c r="F295" s="3">
-        <f t="shared" si="1"/>
-        <v>623.664</v>
-      </c>
+      <c r="F295" s="3"/>
       <c r="G295" s="2">
         <v>1.0</v>
       </c>
@@ -9717,10 +8832,7 @@
       <c r="E296" s="3">
         <v>283.0353</v>
       </c>
-      <c r="F296" s="3">
-        <f t="shared" si="1"/>
-        <v>339.64236</v>
-      </c>
+      <c r="F296" s="3"/>
       <c r="G296" s="2">
         <v>48.0</v>
       </c>
@@ -9744,10 +8856,7 @@
       <c r="E297" s="3">
         <v>329.5375</v>
       </c>
-      <c r="F297" s="3">
-        <f t="shared" si="1"/>
-        <v>395.445</v>
-      </c>
+      <c r="F297" s="3"/>
       <c r="G297" s="2">
         <v>3.0</v>
       </c>
@@ -9769,10 +8878,7 @@
       <c r="E298" s="3">
         <v>410.08</v>
       </c>
-      <c r="F298" s="3">
-        <f t="shared" si="1"/>
-        <v>492.096</v>
-      </c>
+      <c r="F298" s="3"/>
       <c r="G298" s="2">
         <v>1.0</v>
       </c>
@@ -9796,10 +8902,7 @@
       <c r="E299" s="3">
         <v>159.7893</v>
       </c>
-      <c r="F299" s="3">
-        <f t="shared" si="1"/>
-        <v>191.74716</v>
-      </c>
+      <c r="F299" s="3"/>
       <c r="G299" s="2">
         <v>7.0</v>
       </c>
@@ -9823,10 +8926,7 @@
       <c r="E300" s="3">
         <v>310.0</v>
       </c>
-      <c r="F300" s="3">
-        <f t="shared" si="1"/>
-        <v>372</v>
-      </c>
+      <c r="F300" s="3"/>
       <c r="G300" s="2">
         <v>5.0</v>
       </c>
@@ -9850,10 +8950,7 @@
       <c r="E301" s="3">
         <v>328.7175</v>
       </c>
-      <c r="F301" s="3">
-        <f t="shared" si="1"/>
-        <v>394.461</v>
-      </c>
+      <c r="F301" s="3"/>
       <c r="G301" s="2">
         <v>4.0</v>
       </c>
@@ -9877,10 +8974,7 @@
       <c r="E302" s="3">
         <v>369.57656</v>
       </c>
-      <c r="F302" s="3">
-        <f t="shared" si="1"/>
-        <v>443.491872</v>
-      </c>
+      <c r="F302" s="3"/>
       <c r="G302" s="2">
         <v>11.0</v>
       </c>
@@ -9904,10 +8998,7 @@
       <c r="E303" s="3">
         <v>193.05957</v>
       </c>
-      <c r="F303" s="3">
-        <f t="shared" si="1"/>
-        <v>231.671484</v>
-      </c>
+      <c r="F303" s="3"/>
       <c r="G303" s="2">
         <v>13.0</v>
       </c>
@@ -9931,10 +9022,7 @@
       <c r="E304" s="3">
         <v>189.86649</v>
       </c>
-      <c r="F304" s="3">
-        <f t="shared" si="1"/>
-        <v>227.839788</v>
-      </c>
+      <c r="F304" s="3"/>
       <c r="G304" s="2">
         <v>12.0</v>
       </c>
@@ -9958,10 +9046,7 @@
       <c r="E305" s="3">
         <v>574.90713</v>
       </c>
-      <c r="F305" s="3">
-        <f t="shared" si="1"/>
-        <v>689.888556</v>
-      </c>
+      <c r="F305" s="3"/>
       <c r="G305" s="2">
         <v>2.0</v>
       </c>
@@ -9985,10 +9070,7 @@
       <c r="E306" s="3">
         <v>810.03341</v>
       </c>
-      <c r="F306" s="3">
-        <f t="shared" si="1"/>
-        <v>972.040092</v>
-      </c>
+      <c r="F306" s="3"/>
       <c r="G306" s="2">
         <v>13.0</v>
       </c>
@@ -10012,10 +9094,7 @@
       <c r="E307" s="3">
         <v>550.82885</v>
       </c>
-      <c r="F307" s="3">
-        <f t="shared" si="1"/>
-        <v>660.99462</v>
-      </c>
+      <c r="F307" s="3"/>
       <c r="G307" s="2">
         <v>6.0</v>
       </c>
@@ -10039,10 +9118,7 @@
       <c r="E308" s="3">
         <v>614.42908</v>
       </c>
-      <c r="F308" s="3">
-        <f t="shared" si="1"/>
-        <v>737.314896</v>
-      </c>
+      <c r="F308" s="3"/>
       <c r="G308" s="2">
         <v>59.0</v>
       </c>
@@ -10064,10 +9140,7 @@
       <c r="E309" s="3">
         <v>565.25316</v>
       </c>
-      <c r="F309" s="3">
-        <f t="shared" si="1"/>
-        <v>678.303792</v>
-      </c>
+      <c r="F309" s="3"/>
       <c r="G309" s="2">
         <v>4.0</v>
       </c>
@@ -10091,10 +9164,7 @@
       <c r="E310" s="3">
         <v>551.705</v>
       </c>
-      <c r="F310" s="3">
-        <f t="shared" si="1"/>
-        <v>662.046</v>
-      </c>
+      <c r="F310" s="3"/>
       <c r="G310" s="2">
         <v>12.0</v>
       </c>
@@ -10118,10 +9188,7 @@
       <c r="E311" s="3">
         <v>535.98</v>
       </c>
-      <c r="F311" s="3">
-        <f t="shared" si="1"/>
-        <v>643.176</v>
-      </c>
+      <c r="F311" s="3"/>
       <c r="G311" s="2">
         <v>13.0</v>
       </c>
@@ -10145,10 +9212,7 @@
       <c r="E312" s="3">
         <v>631.27188</v>
       </c>
-      <c r="F312" s="3">
-        <f t="shared" si="1"/>
-        <v>757.526256</v>
-      </c>
+      <c r="F312" s="3"/>
       <c r="G312" s="2">
         <v>7.0</v>
       </c>
@@ -10172,10 +9236,7 @@
       <c r="E313" s="3">
         <v>108.55949</v>
       </c>
-      <c r="F313" s="3">
-        <f t="shared" si="1"/>
-        <v>130.271388</v>
-      </c>
+      <c r="F313" s="3"/>
       <c r="G313" s="2">
         <v>7.0</v>
       </c>
@@ -10199,10 +9260,7 @@
       <c r="E314" s="3">
         <v>379.89811</v>
       </c>
-      <c r="F314" s="3">
-        <f t="shared" si="1"/>
-        <v>455.877732</v>
-      </c>
+      <c r="F314" s="3"/>
       <c r="G314" s="2">
         <v>62.0</v>
       </c>
@@ -10226,10 +9284,7 @@
       <c r="E315" s="3">
         <v>423.79343</v>
       </c>
-      <c r="F315" s="3">
-        <f t="shared" si="1"/>
-        <v>508.552116</v>
-      </c>
+      <c r="F315" s="3"/>
       <c r="G315" s="2">
         <v>68.0</v>
       </c>
@@ -10253,10 +9308,7 @@
       <c r="E316" s="3">
         <v>710.28913</v>
       </c>
-      <c r="F316" s="3">
-        <f t="shared" si="1"/>
-        <v>852.346956</v>
-      </c>
+      <c r="F316" s="3"/>
       <c r="G316" s="2">
         <v>2.0</v>
       </c>
@@ -10280,10 +9332,7 @@
       <c r="E317" s="3">
         <v>768.61829</v>
       </c>
-      <c r="F317" s="3">
-        <f t="shared" si="1"/>
-        <v>922.341948</v>
-      </c>
+      <c r="F317" s="3"/>
       <c r="G317" s="2">
         <v>36.0</v>
       </c>
@@ -10307,10 +9356,7 @@
       <c r="E318" s="3">
         <v>682.7197</v>
       </c>
-      <c r="F318" s="3">
-        <f t="shared" si="1"/>
-        <v>819.26364</v>
-      </c>
+      <c r="F318" s="3"/>
       <c r="G318" s="2">
         <v>67.0</v>
       </c>
@@ -10334,10 +9380,7 @@
       <c r="E319" s="3">
         <v>510.76324</v>
       </c>
-      <c r="F319" s="3">
-        <f t="shared" si="1"/>
-        <v>612.915888</v>
-      </c>
+      <c r="F319" s="3"/>
       <c r="G319" s="2">
         <v>15.0</v>
       </c>
@@ -10361,10 +9404,7 @@
       <c r="E320" s="3">
         <v>750.0</v>
       </c>
-      <c r="F320" s="3">
-        <f t="shared" si="1"/>
-        <v>900</v>
-      </c>
+      <c r="F320" s="3"/>
       <c r="G320" s="2">
         <v>15.0</v>
       </c>
@@ -10388,10 +9428,7 @@
       <c r="E321" s="3">
         <v>578.93</v>
       </c>
-      <c r="F321" s="3">
-        <f t="shared" si="1"/>
-        <v>694.716</v>
-      </c>
+      <c r="F321" s="3"/>
       <c r="G321" s="2">
         <v>8.0</v>
       </c>
@@ -10415,10 +9452,7 @@
       <c r="E322" s="3">
         <v>710.974</v>
       </c>
-      <c r="F322" s="3">
-        <f t="shared" si="1"/>
-        <v>853.1688</v>
-      </c>
+      <c r="F322" s="3"/>
       <c r="G322" s="2">
         <v>2.0</v>
       </c>
@@ -10442,10 +9476,7 @@
       <c r="E323" s="3">
         <v>656.74436</v>
       </c>
-      <c r="F323" s="3">
-        <f t="shared" si="1"/>
-        <v>788.093232</v>
-      </c>
+      <c r="F323" s="3"/>
       <c r="G323" s="2">
         <v>51.0</v>
       </c>
@@ -10469,10 +9500,7 @@
       <c r="E324" s="3">
         <v>804.27009</v>
       </c>
-      <c r="F324" s="3">
-        <f t="shared" si="1"/>
-        <v>965.124108</v>
-      </c>
+      <c r="F324" s="3"/>
       <c r="G324" s="2">
         <v>40.0</v>
       </c>
@@ -10496,10 +9524,7 @@
       <c r="E325" s="3">
         <v>72.68531</v>
       </c>
-      <c r="F325" s="3">
-        <f t="shared" si="1"/>
-        <v>87.222372</v>
-      </c>
+      <c r="F325" s="3"/>
       <c r="G325" s="2">
         <v>6.0</v>
       </c>
@@ -10523,10 +9548,7 @@
       <c r="E326" s="3">
         <v>0.01</v>
       </c>
-      <c r="F326" s="3">
-        <f t="shared" si="1"/>
-        <v>0.012</v>
-      </c>
+      <c r="F326" s="3"/>
       <c r="G326" s="2">
         <v>54.0</v>
       </c>
@@ -10550,10 +9572,7 @@
       <c r="E327" s="3">
         <v>112.32719</v>
       </c>
-      <c r="F327" s="3">
-        <f t="shared" si="1"/>
-        <v>134.792628</v>
-      </c>
+      <c r="F327" s="3"/>
       <c r="G327" s="2">
         <v>28.0</v>
       </c>
@@ -10577,10 +9596,7 @@
       <c r="E328" s="3">
         <v>69.62825</v>
       </c>
-      <c r="F328" s="3">
-        <f t="shared" si="1"/>
-        <v>83.5539</v>
-      </c>
+      <c r="F328" s="3"/>
       <c r="G328" s="2">
         <v>90.0</v>
       </c>
@@ -10604,10 +9620,7 @@
       <c r="E329" s="3">
         <v>82.291</v>
       </c>
-      <c r="F329" s="3">
-        <f t="shared" si="1"/>
-        <v>98.7492</v>
-      </c>
+      <c r="F329" s="3"/>
       <c r="G329" s="2">
         <v>38.0</v>
       </c>
@@ -10631,10 +9644,7 @@
       <c r="E330" s="3">
         <v>0.011</v>
       </c>
-      <c r="F330" s="3">
-        <f t="shared" si="1"/>
-        <v>0.0132</v>
-      </c>
+      <c r="F330" s="3"/>
       <c r="G330" s="2">
         <v>6.0</v>
       </c>
@@ -10658,10 +9668,7 @@
       <c r="E331" s="3">
         <v>176.66336</v>
       </c>
-      <c r="F331" s="3">
-        <f t="shared" si="1"/>
-        <v>211.996032</v>
-      </c>
+      <c r="F331" s="3"/>
       <c r="G331" s="2">
         <v>8.0</v>
       </c>
@@ -10685,10 +9692,7 @@
       <c r="E332" s="3">
         <v>0.011</v>
       </c>
-      <c r="F332" s="3">
-        <f t="shared" si="1"/>
-        <v>0.0132</v>
-      </c>
+      <c r="F332" s="3"/>
       <c r="G332" s="2">
         <v>10.0</v>
       </c>
@@ -10712,10 +9716,7 @@
       <c r="E333" s="3">
         <v>353.80827</v>
       </c>
-      <c r="F333" s="3">
-        <f t="shared" si="1"/>
-        <v>424.569924</v>
-      </c>
+      <c r="F333" s="3"/>
       <c r="G333" s="2">
         <v>4.0</v>
       </c>
@@ -10739,10 +9740,7 @@
       <c r="E334" s="3">
         <v>96.547</v>
       </c>
-      <c r="F334" s="3">
-        <f t="shared" si="1"/>
-        <v>115.8564</v>
-      </c>
+      <c r="F334" s="3"/>
       <c r="G334" s="2">
         <v>11.0</v>
       </c>
@@ -10766,10 +9764,7 @@
       <c r="E335" s="3">
         <v>71.32847</v>
       </c>
-      <c r="F335" s="3">
-        <f t="shared" si="1"/>
-        <v>85.594164</v>
-      </c>
+      <c r="F335" s="3"/>
       <c r="G335" s="2">
         <v>266.0</v>
       </c>
@@ -10793,10 +9788,7 @@
       <c r="E336" s="3">
         <v>147.42959</v>
       </c>
-      <c r="F336" s="3">
-        <f t="shared" si="1"/>
-        <v>176.915508</v>
-      </c>
+      <c r="F336" s="3"/>
       <c r="G336" s="2">
         <v>74.0</v>
       </c>
@@ -10820,10 +9812,7 @@
       <c r="E337" s="3">
         <v>159.52203</v>
       </c>
-      <c r="F337" s="3">
-        <f t="shared" si="1"/>
-        <v>191.426436</v>
-      </c>
+      <c r="F337" s="3"/>
       <c r="G337" s="2">
         <v>53.0</v>
       </c>
@@ -10847,10 +9836,7 @@
       <c r="E338" s="3">
         <v>129.40882</v>
       </c>
-      <c r="F338" s="3">
-        <f t="shared" si="1"/>
-        <v>155.290584</v>
-      </c>
+      <c r="F338" s="3"/>
       <c r="G338" s="2">
         <v>60.0</v>
       </c>
@@ -10874,10 +9860,7 @@
       <c r="E339" s="3">
         <v>74.723</v>
       </c>
-      <c r="F339" s="3">
-        <f t="shared" si="1"/>
-        <v>89.6676</v>
-      </c>
+      <c r="F339" s="3"/>
       <c r="G339" s="2">
         <v>8.0</v>
       </c>
@@ -10901,10 +9884,7 @@
       <c r="E340" s="3">
         <v>243.375</v>
       </c>
-      <c r="F340" s="3">
-        <f t="shared" si="1"/>
-        <v>292.05</v>
-      </c>
+      <c r="F340" s="3"/>
       <c r="G340" s="2">
         <v>1.0</v>
       </c>
@@ -10928,10 +9908,7 @@
       <c r="E341" s="3">
         <v>167.45727</v>
       </c>
-      <c r="F341" s="3">
-        <f t="shared" si="1"/>
-        <v>200.948724</v>
-      </c>
+      <c r="F341" s="3"/>
       <c r="G341" s="2">
         <v>4.0</v>
       </c>
@@ -10953,10 +9930,7 @@
       <c r="E342" s="3">
         <v>638.05266</v>
       </c>
-      <c r="F342" s="3">
-        <f t="shared" si="1"/>
-        <v>765.663192</v>
-      </c>
+      <c r="F342" s="3"/>
       <c r="G342" s="2">
         <v>3.0</v>
       </c>
@@ -10978,10 +9952,7 @@
       <c r="E343" s="3">
         <v>153.05797</v>
       </c>
-      <c r="F343" s="3">
-        <f t="shared" si="1"/>
-        <v>183.669564</v>
-      </c>
+      <c r="F343" s="3"/>
       <c r="G343" s="2">
         <v>10.0</v>
       </c>
@@ -11003,10 +9974,7 @@
       <c r="E344" s="3">
         <v>729.98348</v>
       </c>
-      <c r="F344" s="3">
-        <f t="shared" si="1"/>
-        <v>875.980176</v>
-      </c>
+      <c r="F344" s="3"/>
       <c r="G344" s="2">
         <v>2.0</v>
       </c>
@@ -11028,10 +9996,7 @@
       <c r="E345" s="3">
         <v>704.41178</v>
       </c>
-      <c r="F345" s="3">
-        <f t="shared" si="1"/>
-        <v>845.294136</v>
-      </c>
+      <c r="F345" s="3"/>
       <c r="G345" s="2">
         <v>2.0</v>
       </c>
@@ -11055,10 +10020,7 @@
       <c r="E346" s="3">
         <v>147.33478</v>
       </c>
-      <c r="F346" s="3">
-        <f t="shared" si="1"/>
-        <v>176.801736</v>
-      </c>
+      <c r="F346" s="3"/>
       <c r="G346" s="2">
         <v>12.0</v>
       </c>
@@ -11082,10 +10044,7 @@
       <c r="E347" s="3">
         <v>149.26563</v>
       </c>
-      <c r="F347" s="3">
-        <f t="shared" si="1"/>
-        <v>179.118756</v>
-      </c>
+      <c r="F347" s="3"/>
       <c r="G347" s="2">
         <v>7.0</v>
       </c>
@@ -11109,10 +10068,7 @@
       <c r="E348" s="3">
         <v>163.17744</v>
       </c>
-      <c r="F348" s="3">
-        <f t="shared" si="1"/>
-        <v>195.812928</v>
-      </c>
+      <c r="F348" s="3"/>
       <c r="G348" s="2">
         <v>21.0</v>
       </c>
@@ -11131,10 +10087,7 @@
       <c r="E349" s="3">
         <v>44.0678</v>
       </c>
-      <c r="F349" s="3">
-        <f t="shared" si="1"/>
-        <v>52.88136</v>
-      </c>
+      <c r="F349" s="3"/>
       <c r="G349" s="2">
         <v>8.0</v>
       </c>
@@ -11158,10 +10111,7 @@
       <c r="E350" s="3">
         <v>49.5</v>
       </c>
-      <c r="F350" s="3">
-        <f t="shared" si="1"/>
-        <v>59.4</v>
-      </c>
+      <c r="F350" s="3"/>
       <c r="G350" s="2">
         <v>4.0</v>
       </c>
@@ -11185,10 +10135,7 @@
       <c r="E351" s="3">
         <v>62.7</v>
       </c>
-      <c r="F351" s="3">
-        <f t="shared" si="1"/>
-        <v>75.24</v>
-      </c>
+      <c r="F351" s="3"/>
       <c r="G351" s="2">
         <v>15.0</v>
       </c>
@@ -11210,10 +10157,7 @@
       <c r="E352" s="3">
         <v>55.2489</v>
       </c>
-      <c r="F352" s="3">
-        <f t="shared" si="1"/>
-        <v>66.29868</v>
-      </c>
+      <c r="F352" s="3"/>
       <c r="G352" s="2">
         <v>123.0</v>
       </c>
@@ -11235,10 +10179,7 @@
       <c r="E353" s="3">
         <v>10055.47</v>
       </c>
-      <c r="F353" s="3">
-        <f t="shared" si="1"/>
-        <v>12066.564</v>
-      </c>
+      <c r="F353" s="3"/>
       <c r="G353" s="2">
         <v>1.0</v>
       </c>
@@ -11260,10 +10201,7 @@
       <c r="E354" s="3">
         <v>44.0</v>
       </c>
-      <c r="F354" s="3">
-        <f t="shared" si="1"/>
-        <v>52.8</v>
-      </c>
+      <c r="F354" s="3"/>
       <c r="G354" s="2">
         <v>1.0</v>
       </c>
@@ -11287,10 +10225,7 @@
       <c r="E355" s="3">
         <v>20.04237</v>
       </c>
-      <c r="F355" s="3">
-        <f t="shared" si="1"/>
-        <v>24.050844</v>
-      </c>
+      <c r="F355" s="3"/>
       <c r="G355" s="2">
         <v>73.0</v>
       </c>
@@ -11314,10 +10249,7 @@
       <c r="E356" s="3">
         <v>110.0</v>
       </c>
-      <c r="F356" s="3">
-        <f t="shared" si="1"/>
-        <v>132</v>
-      </c>
+      <c r="F356" s="3"/>
       <c r="G356" s="2">
         <v>1.0</v>
       </c>
@@ -11341,10 +10273,7 @@
       <c r="E357" s="3">
         <v>24.2</v>
       </c>
-      <c r="F357" s="3">
-        <f t="shared" si="1"/>
-        <v>29.04</v>
-      </c>
+      <c r="F357" s="3"/>
       <c r="G357" s="2">
         <v>14.0</v>
       </c>
@@ -11366,10 +10295,7 @@
       <c r="E358" s="3">
         <v>55.0</v>
       </c>
-      <c r="F358" s="3">
-        <f t="shared" si="1"/>
-        <v>66</v>
-      </c>
+      <c r="F358" s="3"/>
       <c r="G358" s="2">
         <v>1.0</v>
       </c>
@@ -11391,10 +10317,7 @@
       <c r="E359" s="3">
         <v>142.0</v>
       </c>
-      <c r="F359" s="3">
-        <f t="shared" si="1"/>
-        <v>170.4</v>
-      </c>
+      <c r="F359" s="3"/>
       <c r="G359" s="2">
         <v>95.0</v>
       </c>
@@ -11416,10 +10339,7 @@
       <c r="E360" s="3">
         <v>5970.0</v>
       </c>
-      <c r="F360" s="3">
-        <f t="shared" si="1"/>
-        <v>7164</v>
-      </c>
+      <c r="F360" s="3"/>
       <c r="G360" s="2">
         <v>7.0</v>
       </c>
@@ -11441,10 +10361,7 @@
       <c r="E361" s="3">
         <v>1133.5</v>
       </c>
-      <c r="F361" s="3">
-        <f t="shared" si="1"/>
-        <v>1360.2</v>
-      </c>
+      <c r="F361" s="3"/>
       <c r="G361" s="2">
         <v>2.0</v>
       </c>
@@ -11466,10 +10383,7 @@
       <c r="E362" s="3">
         <v>478.577</v>
       </c>
-      <c r="F362" s="3">
-        <f t="shared" si="1"/>
-        <v>574.2924</v>
-      </c>
+      <c r="F362" s="3"/>
       <c r="G362" s="2">
         <v>65.0</v>
       </c>
@@ -11491,10 +10405,7 @@
       <c r="E363" s="3">
         <v>1218.701</v>
       </c>
-      <c r="F363" s="3">
-        <f t="shared" si="1"/>
-        <v>1462.4412</v>
-      </c>
+      <c r="F363" s="3"/>
       <c r="G363" s="2">
         <v>1.0</v>
       </c>
@@ -11518,10 +10429,7 @@
       <c r="E364" s="3">
         <v>797.489</v>
       </c>
-      <c r="F364" s="3">
-        <f t="shared" si="1"/>
-        <v>956.9868</v>
-      </c>
+      <c r="F364" s="3"/>
       <c r="G364" s="2">
         <v>7.0</v>
       </c>
@@ -11545,10 +10453,7 @@
       <c r="E365" s="3">
         <v>1029.16667</v>
       </c>
-      <c r="F365" s="3">
-        <f t="shared" si="1"/>
-        <v>1235.000004</v>
-      </c>
+      <c r="F365" s="3"/>
       <c r="G365" s="2">
         <v>63.0</v>
       </c>
@@ -11572,10 +10477,7 @@
       <c r="E366" s="3">
         <v>348.7825</v>
       </c>
-      <c r="F366" s="3">
-        <f t="shared" si="1"/>
-        <v>418.539</v>
-      </c>
+      <c r="F366" s="3"/>
       <c r="G366" s="2">
         <v>41.0</v>
       </c>
@@ -11599,10 +10501,7 @@
       <c r="E367" s="3">
         <v>461.45</v>
       </c>
-      <c r="F367" s="3">
-        <f t="shared" si="1"/>
-        <v>553.74</v>
-      </c>
+      <c r="F367" s="3"/>
       <c r="G367" s="2">
         <v>11.0</v>
       </c>
@@ -11626,10 +10525,7 @@
       <c r="E368" s="3">
         <v>1025.431</v>
       </c>
-      <c r="F368" s="3">
-        <f t="shared" si="1"/>
-        <v>1230.5172</v>
-      </c>
+      <c r="F368" s="3"/>
       <c r="G368" s="2">
         <v>4.0</v>
       </c>
@@ -11651,10 +10547,7 @@
       <c r="E369" s="3">
         <v>1237.28814</v>
       </c>
-      <c r="F369" s="3">
-        <f t="shared" si="1"/>
-        <v>1484.745768</v>
-      </c>
+      <c r="F369" s="3"/>
       <c r="G369" s="2">
         <v>5.0</v>
       </c>
@@ -11678,10 +10571,7 @@
       <c r="E370" s="3">
         <v>27.9661</v>
       </c>
-      <c r="F370" s="3">
-        <f t="shared" si="1"/>
-        <v>33.55932</v>
-      </c>
+      <c r="F370" s="3"/>
       <c r="G370" s="2">
         <v>156.0</v>
       </c>
@@ -11705,10 +10595,7 @@
       <c r="E371" s="3">
         <v>682.363</v>
       </c>
-      <c r="F371" s="3">
-        <f t="shared" si="1"/>
-        <v>818.8356</v>
-      </c>
+      <c r="F371" s="3"/>
       <c r="G371" s="2">
         <v>3.0</v>
       </c>
@@ -11732,10 +10619,7 @@
       <c r="E372" s="3">
         <v>650.0</v>
       </c>
-      <c r="F372" s="3">
-        <f t="shared" si="1"/>
-        <v>780</v>
-      </c>
+      <c r="F372" s="3"/>
       <c r="G372" s="2">
         <v>34.0</v>
       </c>
@@ -11757,10 +10641,7 @@
       <c r="E373" s="3">
         <v>7291.66667</v>
       </c>
-      <c r="F373" s="3">
-        <f t="shared" si="1"/>
-        <v>8750.000004</v>
-      </c>
+      <c r="F373" s="3"/>
       <c r="G373" s="2">
         <v>4.0</v>
       </c>
@@ -11784,10 +10665,7 @@
       <c r="E374" s="3">
         <v>62.304</v>
       </c>
-      <c r="F374" s="3">
-        <f t="shared" si="1"/>
-        <v>74.7648</v>
-      </c>
+      <c r="F374" s="3"/>
       <c r="G374" s="2">
         <v>2.0</v>
       </c>
@@ -11811,10 +10689,7 @@
       <c r="E375" s="3">
         <v>996.941</v>
       </c>
-      <c r="F375" s="3">
-        <f t="shared" si="1"/>
-        <v>1196.3292</v>
-      </c>
+      <c r="F375" s="3"/>
       <c r="G375" s="2">
         <v>14.0</v>
       </c>
@@ -11838,10 +10713,7 @@
       <c r="E376" s="3">
         <v>1131.086</v>
       </c>
-      <c r="F376" s="3">
-        <f t="shared" si="1"/>
-        <v>1357.3032</v>
-      </c>
+      <c r="F376" s="3"/>
       <c r="G376" s="2">
         <v>27.0</v>
       </c>
@@ -11865,10 +10737,7 @@
       <c r="E377" s="3">
         <v>932.206</v>
       </c>
-      <c r="F377" s="3">
-        <f t="shared" si="1"/>
-        <v>1118.6472</v>
-      </c>
+      <c r="F377" s="3"/>
       <c r="G377" s="2">
         <v>1.0</v>
       </c>
@@ -11892,10 +10761,7 @@
       <c r="E378" s="3">
         <v>289.762</v>
       </c>
-      <c r="F378" s="3">
-        <f t="shared" si="1"/>
-        <v>347.7144</v>
-      </c>
+      <c r="F378" s="3"/>
       <c r="G378" s="2">
         <v>16.0</v>
       </c>
@@ -11919,10 +10785,7 @@
       <c r="E379" s="3">
         <v>297.0</v>
       </c>
-      <c r="F379" s="3">
-        <f t="shared" si="1"/>
-        <v>356.4</v>
-      </c>
+      <c r="F379" s="3"/>
       <c r="G379" s="2">
         <v>37.0</v>
       </c>
@@ -11946,10 +10809,7 @@
       <c r="E380" s="3">
         <v>545.655</v>
       </c>
-      <c r="F380" s="3">
-        <f t="shared" si="1"/>
-        <v>654.786</v>
-      </c>
+      <c r="F380" s="3"/>
       <c r="G380" s="2">
         <v>10.0</v>
       </c>
@@ -11973,10 +10833,7 @@
       <c r="E381" s="3">
         <v>585.26339</v>
       </c>
-      <c r="F381" s="3">
-        <f t="shared" si="1"/>
-        <v>702.316068</v>
-      </c>
+      <c r="F381" s="3"/>
       <c r="G381" s="2">
         <v>3.0</v>
       </c>
@@ -11998,10 +10855,7 @@
       <c r="E382" s="3">
         <v>1286.7</v>
       </c>
-      <c r="F382" s="3">
-        <f t="shared" si="1"/>
-        <v>1544.04</v>
-      </c>
+      <c r="F382" s="3"/>
       <c r="G382" s="2">
         <v>8.0</v>
       </c>
@@ -12025,10 +10879,7 @@
       <c r="E383" s="3">
         <v>262.0</v>
       </c>
-      <c r="F383" s="3">
-        <f t="shared" si="1"/>
-        <v>314.4</v>
-      </c>
+      <c r="F383" s="3"/>
       <c r="G383" s="2">
         <v>11.0</v>
       </c>
@@ -12052,10 +10903,7 @@
       <c r="E384" s="3">
         <v>388.85</v>
       </c>
-      <c r="F384" s="3">
-        <f t="shared" si="1"/>
-        <v>466.62</v>
-      </c>
+      <c r="F384" s="3"/>
       <c r="G384" s="2">
         <v>3.0</v>
       </c>
@@ -12079,10 +10927,7 @@
       <c r="E385" s="3">
         <v>1657.216</v>
       </c>
-      <c r="F385" s="3">
-        <f t="shared" si="1"/>
-        <v>1988.6592</v>
-      </c>
+      <c r="F385" s="3"/>
       <c r="G385" s="2">
         <v>2.0</v>
       </c>
@@ -12106,10 +10951,7 @@
       <c r="E386" s="3">
         <v>677.11</v>
       </c>
-      <c r="F386" s="3">
-        <f t="shared" si="1"/>
-        <v>812.532</v>
-      </c>
+      <c r="F386" s="3"/>
       <c r="G386" s="2">
         <v>10.0</v>
       </c>
@@ -12133,10 +10975,7 @@
       <c r="E387" s="3">
         <v>690.67</v>
       </c>
-      <c r="F387" s="3">
-        <f t="shared" si="1"/>
-        <v>828.804</v>
-      </c>
+      <c r="F387" s="3"/>
       <c r="G387" s="2">
         <v>35.0</v>
       </c>
@@ -12160,10 +10999,7 @@
       <c r="E388" s="3">
         <v>857.0</v>
       </c>
-      <c r="F388" s="3">
-        <f t="shared" si="1"/>
-        <v>1028.4</v>
-      </c>
+      <c r="F388" s="3"/>
       <c r="G388" s="2">
         <v>11.0</v>
       </c>
@@ -12187,10 +11023,7 @@
       <c r="E389" s="3">
         <v>817.08</v>
       </c>
-      <c r="F389" s="3">
-        <f t="shared" si="1"/>
-        <v>980.496</v>
-      </c>
+      <c r="F389" s="3"/>
       <c r="G389" s="2">
         <v>2.0</v>
       </c>
@@ -12214,10 +11047,7 @@
       <c r="E390" s="3">
         <v>817.08</v>
       </c>
-      <c r="F390" s="3">
-        <f t="shared" si="1"/>
-        <v>980.496</v>
-      </c>
+      <c r="F390" s="3"/>
       <c r="G390" s="2">
         <v>1.0</v>
       </c>
@@ -12241,10 +11071,7 @@
       <c r="E391" s="3">
         <v>439.0</v>
       </c>
-      <c r="F391" s="3">
-        <f t="shared" si="1"/>
-        <v>526.8</v>
-      </c>
+      <c r="F391" s="3"/>
       <c r="G391" s="2">
         <v>1.0</v>
       </c>
@@ -12268,10 +11095,7 @@
       <c r="E392" s="3">
         <v>1084.74576</v>
       </c>
-      <c r="F392" s="3">
-        <f t="shared" si="1"/>
-        <v>1301.694912</v>
-      </c>
+      <c r="F392" s="3"/>
       <c r="G392" s="2">
         <v>10.0</v>
       </c>
@@ -12295,10 +11119,7 @@
       <c r="E393" s="3">
         <v>1084.74576</v>
       </c>
-      <c r="F393" s="3">
-        <f t="shared" si="1"/>
-        <v>1301.694912</v>
-      </c>
+      <c r="F393" s="3"/>
       <c r="G393" s="2">
         <v>10.0</v>
       </c>
@@ -12322,10 +11143,7 @@
       <c r="E394" s="3">
         <v>1118.64401</v>
       </c>
-      <c r="F394" s="3">
-        <f t="shared" si="1"/>
-        <v>1342.372812</v>
-      </c>
+      <c r="F394" s="3"/>
       <c r="G394" s="2">
         <v>15.0</v>
       </c>
@@ -12349,10 +11167,7 @@
       <c r="E395" s="3">
         <v>1161.01695</v>
       </c>
-      <c r="F395" s="3">
-        <f t="shared" si="1"/>
-        <v>1393.22034</v>
-      </c>
+      <c r="F395" s="3"/>
       <c r="G395" s="2">
         <v>32.0</v>
       </c>
@@ -12374,10 +11189,7 @@
       <c r="E396" s="3">
         <v>1156.463</v>
       </c>
-      <c r="F396" s="3">
-        <f t="shared" si="1"/>
-        <v>1387.7556</v>
-      </c>
+      <c r="F396" s="3"/>
       <c r="G396" s="2">
         <v>1.0</v>
       </c>
@@ -12401,10 +11213,7 @@
       <c r="E397" s="3">
         <v>2467.058</v>
       </c>
-      <c r="F397" s="3">
-        <f t="shared" si="1"/>
-        <v>2960.4696</v>
-      </c>
+      <c r="F397" s="3"/>
       <c r="G397" s="2">
         <v>5.0</v>
       </c>
@@ -12428,10 +11237,7 @@
       <c r="E398" s="3">
         <v>2754.235</v>
       </c>
-      <c r="F398" s="3">
-        <f t="shared" si="1"/>
-        <v>3305.082</v>
-      </c>
+      <c r="F398" s="3"/>
       <c r="G398" s="2">
         <v>3.0</v>
       </c>
@@ -12453,10 +11259,7 @@
       <c r="E399" s="3">
         <v>200.0</v>
       </c>
-      <c r="F399" s="3">
-        <f t="shared" si="1"/>
-        <v>240</v>
-      </c>
+      <c r="F399" s="3"/>
       <c r="G399" s="2">
         <v>1.0</v>
       </c>
@@ -12478,10 +11281,7 @@
       <c r="E400" s="3">
         <v>9322.0339</v>
       </c>
-      <c r="F400" s="3">
-        <f t="shared" si="1"/>
-        <v>11186.44068</v>
-      </c>
+      <c r="F400" s="3"/>
       <c r="G400" s="2">
         <v>1.0</v>
       </c>
@@ -12505,10 +11305,7 @@
       <c r="E401" s="3">
         <v>36.98</v>
       </c>
-      <c r="F401" s="3">
-        <f t="shared" si="1"/>
-        <v>44.376</v>
-      </c>
+      <c r="F401" s="3"/>
       <c r="G401" s="2">
         <v>110.0</v>
       </c>
@@ -12530,10 +11327,7 @@
       <c r="E402" s="3">
         <v>43.56</v>
       </c>
-      <c r="F402" s="3">
-        <f t="shared" si="1"/>
-        <v>52.272</v>
-      </c>
+      <c r="F402" s="3"/>
       <c r="G402" s="2">
         <v>235.0</v>
       </c>
@@ -12555,10 +11349,7 @@
       <c r="E403" s="3">
         <v>110.0</v>
       </c>
-      <c r="F403" s="3">
-        <f t="shared" si="1"/>
-        <v>132</v>
-      </c>
+      <c r="F403" s="3"/>
       <c r="G403" s="2">
         <v>26.0</v>
       </c>
@@ -12580,10 +11371,7 @@
       <c r="E404" s="3">
         <v>286.0</v>
       </c>
-      <c r="F404" s="3">
-        <f t="shared" si="1"/>
-        <v>343.2</v>
-      </c>
+      <c r="F404" s="3"/>
       <c r="G404" s="2">
         <v>4.0</v>
       </c>
@@ -12605,10 +11393,7 @@
       <c r="E405" s="3">
         <v>1800.0</v>
       </c>
-      <c r="F405" s="3">
-        <f t="shared" si="1"/>
-        <v>2160</v>
-      </c>
+      <c r="F405" s="3"/>
       <c r="G405" s="2">
         <v>3.0</v>
       </c>
@@ -12630,10 +11415,7 @@
       <c r="E406" s="3">
         <v>5737.5</v>
       </c>
-      <c r="F406" s="3">
-        <f t="shared" si="1"/>
-        <v>6885</v>
-      </c>
+      <c r="F406" s="3"/>
       <c r="G406" s="2">
         <v>1.0</v>
       </c>
@@ -12655,10 +11437,7 @@
       <c r="E407" s="3">
         <v>257.4</v>
       </c>
-      <c r="F407" s="3">
-        <f t="shared" si="1"/>
-        <v>308.88</v>
-      </c>
+      <c r="F407" s="3"/>
       <c r="G407" s="2">
         <v>2.0</v>
       </c>
@@ -12680,10 +11459,7 @@
       <c r="E408" s="3">
         <v>1789.83051</v>
       </c>
-      <c r="F408" s="3">
-        <f t="shared" si="1"/>
-        <v>2147.796612</v>
-      </c>
+      <c r="F408" s="3"/>
       <c r="G408" s="2">
         <v>1.0</v>
       </c>
@@ -12705,10 +11481,7 @@
       <c r="E409" s="3">
         <v>100.0</v>
       </c>
-      <c r="F409" s="3">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
+      <c r="F409" s="3"/>
       <c r="G409" s="2">
         <v>12.0</v>
       </c>
@@ -12730,10 +11503,7 @@
       <c r="E410" s="3">
         <v>1430.0</v>
       </c>
-      <c r="F410" s="3">
-        <f t="shared" si="1"/>
-        <v>1716</v>
-      </c>
+      <c r="F410" s="3"/>
       <c r="G410" s="2">
         <v>1.0</v>
       </c>
@@ -12755,10 +11525,7 @@
       <c r="E411" s="3">
         <v>116.6</v>
       </c>
-      <c r="F411" s="3">
-        <f t="shared" si="1"/>
-        <v>139.92</v>
-      </c>
+      <c r="F411" s="3"/>
       <c r="G411" s="2">
         <v>4.0</v>
       </c>
@@ -12780,10 +11547,7 @@
       <c r="E412" s="3">
         <v>715.0</v>
       </c>
-      <c r="F412" s="3">
-        <f t="shared" si="1"/>
-        <v>858</v>
-      </c>
+      <c r="F412" s="3"/>
       <c r="G412" s="2">
         <v>1.0</v>
       </c>
@@ -12805,10 +11569,7 @@
       <c r="E413" s="3">
         <v>341.0</v>
       </c>
-      <c r="F413" s="3">
-        <f t="shared" si="1"/>
-        <v>409.2</v>
-      </c>
+      <c r="F413" s="3"/>
       <c r="G413" s="2">
         <v>2.0</v>
       </c>
@@ -12830,10 +11591,7 @@
       <c r="E414" s="3">
         <v>1191.3</v>
       </c>
-      <c r="F414" s="3">
-        <f t="shared" si="1"/>
-        <v>1429.56</v>
-      </c>
+      <c r="F414" s="3"/>
       <c r="G414" s="2">
         <v>4.0</v>
       </c>
@@ -12855,10 +11613,7 @@
       <c r="E415" s="3">
         <v>770.0</v>
       </c>
-      <c r="F415" s="3">
-        <f t="shared" si="1"/>
-        <v>924</v>
-      </c>
+      <c r="F415" s="3"/>
       <c r="G415" s="2">
         <v>1.0</v>
       </c>
@@ -12882,10 +11637,7 @@
       <c r="E416" s="3">
         <v>880.0</v>
       </c>
-      <c r="F416" s="3">
-        <f t="shared" si="1"/>
-        <v>1056</v>
-      </c>
+      <c r="F416" s="3"/>
       <c r="G416" s="2">
         <v>5.0</v>
       </c>
@@ -12907,10 +11659,7 @@
       <c r="E417" s="3">
         <v>1320.0</v>
       </c>
-      <c r="F417" s="3">
-        <f t="shared" si="1"/>
-        <v>1584</v>
-      </c>
+      <c r="F417" s="3"/>
       <c r="G417" s="2">
         <v>16.0</v>
       </c>
@@ -12932,10 +11681,7 @@
       <c r="E418" s="3">
         <v>330.0</v>
       </c>
-      <c r="F418" s="3">
-        <f t="shared" si="1"/>
-        <v>396</v>
-      </c>
+      <c r="F418" s="3"/>
       <c r="G418" s="2">
         <v>4.0</v>
       </c>
@@ -12957,10 +11703,7 @@
       <c r="E419" s="3">
         <v>682.0</v>
       </c>
-      <c r="F419" s="3">
-        <f t="shared" si="1"/>
-        <v>818.4</v>
-      </c>
+      <c r="F419" s="3"/>
       <c r="G419" s="2">
         <v>1.0</v>
       </c>
@@ -12982,10 +11725,7 @@
       <c r="E420" s="3">
         <v>29.601</v>
       </c>
-      <c r="F420" s="3">
-        <f t="shared" si="1"/>
-        <v>35.5212</v>
-      </c>
+      <c r="F420" s="3"/>
       <c r="G420" s="2">
         <v>25.0</v>
       </c>
@@ -13007,10 +11747,7 @@
       <c r="E421" s="3">
         <v>880.0</v>
       </c>
-      <c r="F421" s="3">
-        <f t="shared" si="1"/>
-        <v>1056</v>
-      </c>
+      <c r="F421" s="3"/>
       <c r="G421" s="2">
         <v>3.0</v>
       </c>
@@ -13032,10 +11769,7 @@
       <c r="E422" s="3">
         <v>190.3</v>
       </c>
-      <c r="F422" s="3">
-        <f t="shared" si="1"/>
-        <v>228.36</v>
-      </c>
+      <c r="F422" s="3"/>
       <c r="G422" s="2">
         <v>4.0</v>
       </c>
@@ -13057,10 +11791,7 @@
       <c r="E423" s="3">
         <v>856.0</v>
       </c>
-      <c r="F423" s="3">
-        <f t="shared" si="1"/>
-        <v>1027.2</v>
-      </c>
+      <c r="F423" s="3"/>
       <c r="G423" s="2">
         <v>4.0</v>
       </c>
@@ -13082,10 +11813,7 @@
       <c r="E424" s="3">
         <v>50.84746</v>
       </c>
-      <c r="F424" s="3">
-        <f t="shared" si="1"/>
-        <v>61.016952</v>
-      </c>
+      <c r="F424" s="3"/>
       <c r="G424" s="2">
         <v>3.0</v>
       </c>
@@ -13107,10 +11835,7 @@
       <c r="E425" s="3">
         <v>176.0</v>
       </c>
-      <c r="F425" s="3">
-        <f t="shared" si="1"/>
-        <v>211.2</v>
-      </c>
+      <c r="F425" s="3"/>
       <c r="G425" s="2">
         <v>9.0</v>
       </c>
@@ -13132,10 +11857,7 @@
       <c r="E426" s="3">
         <v>924.0</v>
       </c>
-      <c r="F426" s="3">
-        <f t="shared" si="1"/>
-        <v>1108.8</v>
-      </c>
+      <c r="F426" s="3"/>
       <c r="G426" s="2">
         <v>2.0</v>
       </c>
@@ -13157,10 +11879,7 @@
       <c r="E427" s="3">
         <v>35.75</v>
       </c>
-      <c r="F427" s="3">
-        <f t="shared" si="1"/>
-        <v>42.9</v>
-      </c>
+      <c r="F427" s="3"/>
       <c r="G427" s="2">
         <v>66.0</v>
       </c>
@@ -13182,10 +11901,7 @@
       <c r="E428" s="3">
         <v>80.0</v>
       </c>
-      <c r="F428" s="3">
-        <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
+      <c r="F428" s="3"/>
       <c r="G428" s="2">
         <v>24.0</v>
       </c>
@@ -13207,10 +11923,7 @@
       <c r="E429" s="3">
         <v>80.0</v>
       </c>
-      <c r="F429" s="3">
-        <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
+      <c r="F429" s="3"/>
       <c r="G429" s="2">
         <v>120.0</v>
       </c>
@@ -13232,10 +11945,7 @@
       <c r="E430" s="3">
         <v>100.0</v>
       </c>
-      <c r="F430" s="3">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
+      <c r="F430" s="3"/>
       <c r="G430" s="2">
         <v>230.0</v>
       </c>
@@ -13257,10 +11967,7 @@
       <c r="E431" s="3">
         <v>4400.0</v>
       </c>
-      <c r="F431" s="3">
-        <f t="shared" si="1"/>
-        <v>5280</v>
-      </c>
+      <c r="F431" s="3"/>
       <c r="G431" s="2">
         <v>1.0</v>
       </c>
@@ -13282,10 +11989,7 @@
       <c r="E432" s="3">
         <v>171.6</v>
       </c>
-      <c r="F432" s="3">
-        <f t="shared" si="1"/>
-        <v>205.92</v>
-      </c>
+      <c r="F432" s="3"/>
       <c r="G432" s="2">
         <v>2.0</v>
       </c>
@@ -13309,10 +12013,7 @@
       <c r="E433" s="3">
         <v>2819.96</v>
       </c>
-      <c r="F433" s="3">
-        <f t="shared" si="1"/>
-        <v>3383.952</v>
-      </c>
+      <c r="F433" s="3"/>
       <c r="G433" s="2">
         <v>1.0</v>
       </c>
@@ -13336,10 +12037,7 @@
       <c r="E434" s="3">
         <v>1864.406</v>
       </c>
-      <c r="F434" s="3">
-        <f t="shared" si="1"/>
-        <v>2237.2872</v>
-      </c>
+      <c r="F434" s="3"/>
       <c r="G434" s="2">
         <v>4.0</v>
       </c>
@@ -13363,10 +12061,7 @@
       <c r="E435" s="3">
         <v>1976.271</v>
       </c>
-      <c r="F435" s="3">
-        <f t="shared" si="1"/>
-        <v>2371.5252</v>
-      </c>
+      <c r="F435" s="3"/>
       <c r="G435" s="2">
         <v>1.0</v>
       </c>
@@ -13390,10 +12085,7 @@
       <c r="E436" s="3">
         <v>1976.271</v>
       </c>
-      <c r="F436" s="3">
-        <f t="shared" si="1"/>
-        <v>2371.5252</v>
-      </c>
+      <c r="F436" s="3"/>
       <c r="G436" s="2">
         <v>2.0</v>
       </c>
@@ -13417,10 +12109,7 @@
       <c r="E437" s="3">
         <v>1224.5797</v>
       </c>
-      <c r="F437" s="3">
-        <f t="shared" si="1"/>
-        <v>1469.49564</v>
-      </c>
+      <c r="F437" s="3"/>
       <c r="G437" s="2">
         <v>21.0</v>
       </c>
@@ -13444,10 +12133,7 @@
       <c r="E438" s="3">
         <v>1397.46</v>
       </c>
-      <c r="F438" s="3">
-        <f t="shared" si="1"/>
-        <v>1676.952</v>
-      </c>
+      <c r="F438" s="3"/>
       <c r="G438" s="2">
         <v>14.0</v>
       </c>
@@ -13471,10 +12157,7 @@
       <c r="E439" s="3">
         <v>2097.458</v>
       </c>
-      <c r="F439" s="3">
-        <f t="shared" si="1"/>
-        <v>2516.9496</v>
-      </c>
+      <c r="F439" s="3"/>
       <c r="G439" s="2">
         <v>2.0</v>
       </c>
@@ -13498,10 +12181,7 @@
       <c r="E440" s="3">
         <v>6245.767</v>
       </c>
-      <c r="F440" s="3">
-        <f t="shared" si="1"/>
-        <v>7494.9204</v>
-      </c>
+      <c r="F440" s="3"/>
       <c r="G440" s="2">
         <v>1.0</v>
       </c>
@@ -13525,10 +12205,7 @@
       <c r="E441" s="3">
         <v>207.6275</v>
       </c>
-      <c r="F441" s="3">
-        <f t="shared" si="1"/>
-        <v>249.153</v>
-      </c>
+      <c r="F441" s="3"/>
       <c r="G441" s="2">
         <v>29.0</v>
       </c>
@@ -13552,10 +12229,7 @@
       <c r="E442" s="3">
         <v>279.6599</v>
       </c>
-      <c r="F442" s="3">
-        <f t="shared" si="1"/>
-        <v>335.59188</v>
-      </c>
+      <c r="F442" s="3"/>
       <c r="G442" s="2">
         <v>79.0</v>
       </c>
@@ -13579,10 +12253,7 @@
       <c r="E443" s="3">
         <v>288.135</v>
       </c>
-      <c r="F443" s="3">
-        <f t="shared" si="1"/>
-        <v>345.762</v>
-      </c>
+      <c r="F443" s="3"/>
       <c r="G443" s="2">
         <v>75.0</v>
       </c>
@@ -13606,10 +12277,7 @@
       <c r="E444" s="3">
         <v>438.141</v>
       </c>
-      <c r="F444" s="3">
-        <f t="shared" si="1"/>
-        <v>525.7692</v>
-      </c>
+      <c r="F444" s="3"/>
       <c r="G444" s="2">
         <v>1.0</v>
       </c>
@@ -13633,10 +12301,7 @@
       <c r="E445" s="3">
         <v>593.22</v>
       </c>
-      <c r="F445" s="3">
-        <f t="shared" si="1"/>
-        <v>711.864</v>
-      </c>
+      <c r="F445" s="3"/>
       <c r="G445" s="2">
         <v>13.0</v>
       </c>
@@ -13660,10 +12325,7 @@
       <c r="E446" s="3">
         <v>466.104</v>
       </c>
-      <c r="F446" s="3">
-        <f t="shared" si="1"/>
-        <v>559.3248</v>
-      </c>
+      <c r="F446" s="3"/>
       <c r="G446" s="2">
         <v>20.0</v>
       </c>
@@ -13687,10 +12349,7 @@
       <c r="E447" s="3">
         <v>381.6</v>
       </c>
-      <c r="F447" s="3">
-        <f t="shared" si="1"/>
-        <v>457.92</v>
-      </c>
+      <c r="F447" s="3"/>
       <c r="G447" s="2">
         <v>21.0</v>
       </c>
@@ -13714,10 +12373,7 @@
       <c r="E448" s="3">
         <v>508.0</v>
       </c>
-      <c r="F448" s="3">
-        <f t="shared" si="1"/>
-        <v>609.6</v>
-      </c>
+      <c r="F448" s="3"/>
       <c r="G448" s="2">
         <v>14.0</v>
       </c>
@@ -13741,10 +12397,7 @@
       <c r="E449" s="3">
         <v>279.66</v>
       </c>
-      <c r="F449" s="3">
-        <f t="shared" si="1"/>
-        <v>335.592</v>
-      </c>
+      <c r="F449" s="3"/>
       <c r="G449" s="2">
         <v>23.0</v>
       </c>
@@ -13768,10 +12421,7 @@
       <c r="E450" s="3">
         <v>525.4199</v>
       </c>
-      <c r="F450" s="3">
-        <f t="shared" si="1"/>
-        <v>630.50388</v>
-      </c>
+      <c r="F450" s="3"/>
       <c r="G450" s="2">
         <v>89.0</v>
       </c>
@@ -13795,10 +12445,7 @@
       <c r="E451" s="3">
         <v>525.42</v>
       </c>
-      <c r="F451" s="3">
-        <f t="shared" si="1"/>
-        <v>630.504</v>
-      </c>
+      <c r="F451" s="3"/>
       <c r="G451" s="2">
         <v>87.0</v>
       </c>
@@ -13820,10 +12467,7 @@
       <c r="E452" s="3">
         <v>700.0</v>
       </c>
-      <c r="F452" s="3">
-        <f t="shared" si="1"/>
-        <v>840</v>
-      </c>
+      <c r="F452" s="3"/>
       <c r="G452" s="2">
         <v>1.0</v>
       </c>
@@ -13845,10 +12489,7 @@
       <c r="E453" s="3">
         <v>4330.08475</v>
       </c>
-      <c r="F453" s="3">
-        <f t="shared" si="1"/>
-        <v>5196.1017</v>
-      </c>
+      <c r="F453" s="3"/>
       <c r="G453" s="2">
         <v>1.0</v>
       </c>
@@ -13870,10 +12511,7 @@
       <c r="E454" s="3">
         <v>3742.794</v>
       </c>
-      <c r="F454" s="3">
-        <f t="shared" si="1"/>
-        <v>4491.3528</v>
-      </c>
+      <c r="F454" s="3"/>
       <c r="G454" s="2">
         <v>1.0</v>
       </c>
@@ -13895,10 +12533,7 @@
       <c r="E455" s="3">
         <v>1567.0</v>
       </c>
-      <c r="F455" s="3">
-        <f t="shared" si="1"/>
-        <v>1880.4</v>
-      </c>
+      <c r="F455" s="3"/>
       <c r="G455" s="2">
         <v>4.0</v>
       </c>
@@ -13920,10 +12555,7 @@
       <c r="E456" s="3">
         <v>1254.24</v>
       </c>
-      <c r="F456" s="3">
-        <f t="shared" si="1"/>
-        <v>1505.088</v>
-      </c>
+      <c r="F456" s="3"/>
       <c r="G456" s="2">
         <v>10.0</v>
       </c>
@@ -13945,10 +12577,7 @@
       <c r="E457" s="3">
         <v>1398.31</v>
       </c>
-      <c r="F457" s="3">
-        <f t="shared" si="1"/>
-        <v>1677.972</v>
-      </c>
+      <c r="F457" s="3"/>
       <c r="G457" s="2">
         <v>9.0</v>
       </c>
@@ -13970,10 +12599,7 @@
       <c r="E458" s="3">
         <v>1144.07</v>
       </c>
-      <c r="F458" s="3">
-        <f t="shared" si="1"/>
-        <v>1372.884</v>
-      </c>
+      <c r="F458" s="3"/>
       <c r="G458" s="2">
         <v>6.0</v>
       </c>
@@ -13997,10 +12623,7 @@
       <c r="E459" s="3">
         <v>809.3205</v>
       </c>
-      <c r="F459" s="3">
-        <f t="shared" si="1"/>
-        <v>971.1846</v>
-      </c>
+      <c r="F459" s="3"/>
       <c r="G459" s="2">
         <v>14.0</v>
       </c>
@@ -14024,10 +12647,7 @@
       <c r="E460" s="3">
         <v>831.66051</v>
       </c>
-      <c r="F460" s="3">
-        <f t="shared" si="1"/>
-        <v>997.992612</v>
-      </c>
+      <c r="F460" s="3"/>
       <c r="G460" s="2">
         <v>17.0</v>
       </c>
@@ -14051,10 +12671,7 @@
       <c r="E461" s="3">
         <v>66.649</v>
       </c>
-      <c r="F461" s="3">
-        <f t="shared" si="1"/>
-        <v>79.9788</v>
-      </c>
+      <c r="F461" s="3"/>
       <c r="G461" s="2">
         <v>25.0</v>
       </c>
@@ -14076,10 +12693,7 @@
       <c r="E462" s="3">
         <v>4322.0339</v>
       </c>
-      <c r="F462" s="3">
-        <f t="shared" si="1"/>
-        <v>5186.44068</v>
-      </c>
+      <c r="F462" s="3"/>
       <c r="G462" s="2">
         <v>3.0</v>
       </c>
@@ -14103,10 +12717,7 @@
       <c r="E463" s="3">
         <v>610.1686</v>
       </c>
-      <c r="F463" s="3">
-        <f t="shared" si="1"/>
-        <v>732.20232</v>
-      </c>
+      <c r="F463" s="3"/>
       <c r="G463" s="2">
         <v>1.0</v>
       </c>
@@ -14130,10 +12741,7 @@
       <c r="E464" s="3">
         <v>619.0</v>
       </c>
-      <c r="F464" s="3">
-        <f t="shared" si="1"/>
-        <v>742.8</v>
-      </c>
+      <c r="F464" s="3"/>
       <c r="G464" s="2">
         <v>35.0</v>
       </c>
@@ -14155,10 +12763,7 @@
       <c r="E465" s="3">
         <v>7752.07881</v>
       </c>
-      <c r="F465" s="3">
-        <f t="shared" si="1"/>
-        <v>9302.494572</v>
-      </c>
+      <c r="F465" s="3"/>
       <c r="G465" s="2">
         <v>4.0</v>
       </c>
@@ -14182,10 +12787,7 @@
       <c r="E466" s="3">
         <v>610.1696</v>
       </c>
-      <c r="F466" s="3">
-        <f t="shared" si="1"/>
-        <v>732.20352</v>
-      </c>
+      <c r="F466" s="3"/>
       <c r="G466" s="2">
         <v>82.0</v>
       </c>
@@ -14207,10 +12809,7 @@
       <c r="E467" s="3">
         <v>7622.88</v>
       </c>
-      <c r="F467" s="3">
-        <f t="shared" si="1"/>
-        <v>9147.456</v>
-      </c>
+      <c r="F467" s="3"/>
       <c r="G467" s="2">
         <v>3.0</v>
       </c>
@@ -14232,10 +12831,7 @@
       <c r="E468" s="3">
         <v>1333.046</v>
       </c>
-      <c r="F468" s="3">
-        <f t="shared" si="1"/>
-        <v>1599.6552</v>
-      </c>
+      <c r="F468" s="3"/>
       <c r="G468" s="2">
         <v>2.0</v>
       </c>
@@ -14257,10 +12853,7 @@
       <c r="E469" s="3">
         <v>182.91534</v>
       </c>
-      <c r="F469" s="3">
-        <f t="shared" si="1"/>
-        <v>219.498408</v>
-      </c>
+      <c r="F469" s="3"/>
       <c r="G469" s="2">
         <v>27.0</v>
       </c>
@@ -14284,10 +12877,7 @@
       <c r="E470" s="3">
         <v>105.9322</v>
       </c>
-      <c r="F470" s="3">
-        <f t="shared" si="1"/>
-        <v>127.11864</v>
-      </c>
+      <c r="F470" s="3"/>
       <c r="G470" s="2">
         <v>3.0</v>
       </c>
@@ -14311,10 +12901,7 @@
       <c r="E471" s="3">
         <v>208.34</v>
       </c>
-      <c r="F471" s="3">
-        <f t="shared" si="1"/>
-        <v>250.008</v>
-      </c>
+      <c r="F471" s="3"/>
       <c r="G471" s="2">
         <v>95.0</v>
       </c>
@@ -14336,10 +12923,7 @@
       <c r="E472" s="3">
         <v>280.5</v>
       </c>
-      <c r="F472" s="3">
-        <f t="shared" si="1"/>
-        <v>336.6</v>
-      </c>
+      <c r="F472" s="3"/>
       <c r="G472" s="2">
         <v>16.0</v>
       </c>
@@ -14363,10 +12947,7 @@
       <c r="E473" s="3">
         <v>49.5</v>
       </c>
-      <c r="F473" s="3">
-        <f t="shared" si="1"/>
-        <v>59.4</v>
-      </c>
+      <c r="F473" s="3"/>
       <c r="G473" s="2">
         <v>2.0</v>
       </c>
@@ -14388,10 +12969,7 @@
       <c r="E474" s="3">
         <v>385.6</v>
       </c>
-      <c r="F474" s="3">
-        <f t="shared" si="1"/>
-        <v>462.72</v>
-      </c>
+      <c r="F474" s="3"/>
       <c r="G474" s="2">
         <v>8.0</v>
       </c>
@@ -14415,10 +12993,7 @@
       <c r="E475" s="3">
         <v>559.32195</v>
       </c>
-      <c r="F475" s="3">
-        <f t="shared" si="1"/>
-        <v>671.18634</v>
-      </c>
+      <c r="F475" s="3"/>
       <c r="G475" s="2">
         <v>31.0</v>
       </c>
@@ -14440,10 +13015,7 @@
       <c r="E476" s="3">
         <v>609.49317</v>
       </c>
-      <c r="F476" s="3">
-        <f t="shared" si="1"/>
-        <v>731.391804</v>
-      </c>
+      <c r="F476" s="3"/>
       <c r="G476" s="2">
         <v>1.0</v>
       </c>
@@ -14465,10 +13037,7 @@
       <c r="E477" s="3">
         <v>609.49317</v>
       </c>
-      <c r="F477" s="3">
-        <f t="shared" si="1"/>
-        <v>731.391804</v>
-      </c>
+      <c r="F477" s="3"/>
       <c r="G477" s="2">
         <v>18.0</v>
       </c>
@@ -14490,10 +13059,7 @@
       <c r="E478" s="3">
         <v>559.32195</v>
       </c>
-      <c r="F478" s="3">
-        <f t="shared" si="1"/>
-        <v>671.18634</v>
-      </c>
+      <c r="F478" s="3"/>
       <c r="G478" s="2">
         <v>9.0</v>
       </c>
@@ -14515,10 +13081,7 @@
       <c r="E479" s="3">
         <v>559.32195</v>
       </c>
-      <c r="F479" s="3">
-        <f t="shared" si="1"/>
-        <v>671.18634</v>
-      </c>
+      <c r="F479" s="3"/>
       <c r="G479" s="2">
         <v>22.0</v>
       </c>
@@ -14540,10 +13103,7 @@
       <c r="E480" s="3">
         <v>500.0</v>
       </c>
-      <c r="F480" s="3">
-        <f t="shared" si="1"/>
-        <v>600</v>
-      </c>
+      <c r="F480" s="3"/>
       <c r="G480" s="2">
         <v>4.0</v>
       </c>
@@ -14565,10 +13125,7 @@
       <c r="E481" s="3">
         <v>484.748</v>
       </c>
-      <c r="F481" s="3">
-        <f t="shared" si="1"/>
-        <v>581.6976</v>
-      </c>
+      <c r="F481" s="3"/>
       <c r="G481" s="2">
         <v>43.0</v>
       </c>
@@ -14590,10 +13147,7 @@
       <c r="E482" s="3">
         <v>1081.355</v>
       </c>
-      <c r="F482" s="3">
-        <f t="shared" si="1"/>
-        <v>1297.626</v>
-      </c>
+      <c r="F482" s="3"/>
       <c r="G482" s="2">
         <v>1.0</v>
       </c>
@@ -14615,10 +13169,7 @@
       <c r="E483" s="3">
         <v>838.981</v>
       </c>
-      <c r="F483" s="3">
-        <f t="shared" si="1"/>
-        <v>1006.7772</v>
-      </c>
+      <c r="F483" s="3"/>
       <c r="G483" s="2">
         <v>2.0</v>
       </c>
@@ -14642,10 +13193,7 @@
       <c r="E484" s="3">
         <v>196.26</v>
       </c>
-      <c r="F484" s="3">
-        <f t="shared" si="1"/>
-        <v>235.512</v>
-      </c>
+      <c r="F484" s="3"/>
       <c r="G484" s="2">
         <v>14.0</v>
       </c>
@@ -14667,10 +13215,7 @@
       <c r="E485" s="3">
         <v>223.72881</v>
       </c>
-      <c r="F485" s="3">
-        <f t="shared" si="1"/>
-        <v>268.474572</v>
-      </c>
+      <c r="F485" s="3"/>
       <c r="G485" s="2">
         <v>20.0</v>
       </c>
@@ -14692,10 +13237,7 @@
       <c r="E486" s="3">
         <v>1320.0</v>
       </c>
-      <c r="F486" s="3">
-        <f t="shared" si="1"/>
-        <v>1584</v>
-      </c>
+      <c r="F486" s="3"/>
       <c r="G486" s="2">
         <v>2.0</v>
       </c>
@@ -14717,10 +13259,7 @@
       <c r="E487" s="3">
         <v>1080.0</v>
       </c>
-      <c r="F487" s="3">
-        <f t="shared" si="1"/>
-        <v>1296</v>
-      </c>
+      <c r="F487" s="3"/>
       <c r="G487" s="2">
         <v>1.0</v>
       </c>
@@ -14742,10 +13281,7 @@
       <c r="E488" s="3">
         <v>1072.5</v>
       </c>
-      <c r="F488" s="3">
-        <f t="shared" si="1"/>
-        <v>1287</v>
-      </c>
+      <c r="F488" s="3"/>
       <c r="G488" s="2">
         <v>1.0</v>
       </c>
@@ -14767,10 +13303,7 @@
       <c r="E489" s="3">
         <v>332.145</v>
       </c>
-      <c r="F489" s="3">
-        <f t="shared" si="1"/>
-        <v>398.574</v>
-      </c>
+      <c r="F489" s="3"/>
       <c r="G489" s="2">
         <v>3.0</v>
       </c>
@@ -14792,10 +13325,7 @@
       <c r="E490" s="3">
         <v>1076.9</v>
       </c>
-      <c r="F490" s="3">
-        <f t="shared" si="1"/>
-        <v>1292.28</v>
-      </c>
+      <c r="F490" s="3"/>
       <c r="G490" s="2">
         <v>1.0</v>
       </c>
@@ -14817,10 +13347,7 @@
       <c r="E491" s="3">
         <v>1686.3</v>
       </c>
-      <c r="F491" s="3">
-        <f t="shared" si="1"/>
-        <v>2023.56</v>
-      </c>
+      <c r="F491" s="3"/>
       <c r="G491" s="2">
         <v>4.0</v>
       </c>
@@ -14842,10 +13369,7 @@
       <c r="E492" s="3">
         <v>2288.0</v>
       </c>
-      <c r="F492" s="3">
-        <f t="shared" si="1"/>
-        <v>2745.6</v>
-      </c>
+      <c r="F492" s="3"/>
       <c r="G492" s="2">
         <v>1.0</v>
       </c>
@@ -14867,10 +13391,7 @@
       <c r="E493" s="3">
         <v>6820.0</v>
       </c>
-      <c r="F493" s="3">
-        <f t="shared" si="1"/>
-        <v>8184</v>
-      </c>
+      <c r="F493" s="3"/>
       <c r="G493" s="2">
         <v>1.0</v>
       </c>
@@ -14892,10 +13413,7 @@
       <c r="E494" s="3">
         <v>4870.8</v>
       </c>
-      <c r="F494" s="3">
-        <f t="shared" si="1"/>
-        <v>5844.96</v>
-      </c>
+      <c r="F494" s="3"/>
       <c r="G494" s="2">
         <v>2.0</v>
       </c>
@@ -14917,10 +13435,7 @@
       <c r="E495" s="3">
         <v>4889.5</v>
       </c>
-      <c r="F495" s="3">
-        <f t="shared" si="1"/>
-        <v>5867.4</v>
-      </c>
+      <c r="F495" s="3"/>
       <c r="G495" s="2">
         <v>1.0</v>
       </c>
@@ -14942,10 +13457,7 @@
       <c r="E496" s="3">
         <v>4868.6</v>
       </c>
-      <c r="F496" s="3">
-        <f t="shared" si="1"/>
-        <v>5842.32</v>
-      </c>
+      <c r="F496" s="3"/>
       <c r="G496" s="2">
         <v>1.0</v>
       </c>
@@ -14967,10 +13479,7 @@
       <c r="E497" s="3">
         <v>2654.0</v>
       </c>
-      <c r="F497" s="3">
-        <f t="shared" si="1"/>
-        <v>3184.8</v>
-      </c>
+      <c r="F497" s="3"/>
       <c r="G497" s="2">
         <v>2.0</v>
       </c>
@@ -14992,10 +13501,7 @@
       <c r="E498" s="3">
         <v>2654.0</v>
       </c>
-      <c r="F498" s="3">
-        <f t="shared" si="1"/>
-        <v>3184.8</v>
-      </c>
+      <c r="F498" s="3"/>
       <c r="G498" s="2">
         <v>2.0</v>
       </c>
@@ -15017,10 +13523,7 @@
       <c r="E499" s="3">
         <v>2654.0</v>
       </c>
-      <c r="F499" s="3">
-        <f t="shared" si="1"/>
-        <v>3184.8</v>
-      </c>
+      <c r="F499" s="3"/>
       <c r="G499" s="2">
         <v>3.0</v>
       </c>
@@ -15042,10 +13545,7 @@
       <c r="E500" s="3">
         <v>114.4</v>
       </c>
-      <c r="F500" s="3">
-        <f t="shared" si="1"/>
-        <v>137.28</v>
-      </c>
+      <c r="F500" s="3"/>
       <c r="G500" s="2">
         <v>14.0</v>
       </c>
@@ -15069,10 +13569,7 @@
       <c r="E501" s="3">
         <v>2654.0</v>
       </c>
-      <c r="F501" s="3">
-        <f t="shared" si="1"/>
-        <v>3184.8</v>
-      </c>
+      <c r="F501" s="3"/>
       <c r="G501" s="2">
         <v>3.0</v>
       </c>
@@ -15094,10 +13591,7 @@
       <c r="E502" s="3">
         <v>2871.0</v>
       </c>
-      <c r="F502" s="3">
-        <f t="shared" si="1"/>
-        <v>3445.2</v>
-      </c>
+      <c r="F502" s="3"/>
       <c r="G502" s="2">
         <v>1.0</v>
       </c>
@@ -15119,10 +13613,7 @@
       <c r="E503" s="3">
         <v>2654.0</v>
       </c>
-      <c r="F503" s="3">
-        <f t="shared" si="1"/>
-        <v>3184.8</v>
-      </c>
+      <c r="F503" s="3"/>
       <c r="G503" s="2">
         <v>2.0</v>
       </c>
@@ -15144,10 +13635,7 @@
       <c r="E504" s="3">
         <v>3569.5</v>
       </c>
-      <c r="F504" s="3">
-        <f t="shared" si="1"/>
-        <v>4283.4</v>
-      </c>
+      <c r="F504" s="3"/>
       <c r="G504" s="2">
         <v>2.0</v>
       </c>
@@ -15169,10 +13657,7 @@
       <c r="E505" s="3">
         <v>1081.3</v>
       </c>
-      <c r="F505" s="3">
-        <f t="shared" si="1"/>
-        <v>1297.56</v>
-      </c>
+      <c r="F505" s="3"/>
       <c r="G505" s="2">
         <v>1.0</v>
       </c>
@@ -15194,10 +13679,7 @@
       <c r="E506" s="3">
         <v>4430.0</v>
       </c>
-      <c r="F506" s="3">
-        <f t="shared" si="1"/>
-        <v>5316</v>
-      </c>
+      <c r="F506" s="3"/>
       <c r="G506" s="2">
         <v>1.0</v>
       </c>
@@ -15219,10 +13701,7 @@
       <c r="E507" s="3">
         <v>5034.0</v>
       </c>
-      <c r="F507" s="3">
-        <f t="shared" si="1"/>
-        <v>6040.8</v>
-      </c>
+      <c r="F507" s="3"/>
       <c r="G507" s="2">
         <v>1.0</v>
       </c>
@@ -15244,10 +13723,7 @@
       <c r="E508" s="3">
         <v>2750.0</v>
       </c>
-      <c r="F508" s="3">
-        <f t="shared" si="1"/>
-        <v>3300</v>
-      </c>
+      <c r="F508" s="3"/>
       <c r="G508" s="2">
         <v>3.0</v>
       </c>
@@ -15269,10 +13745,7 @@
       <c r="E509" s="3">
         <v>112.2</v>
       </c>
-      <c r="F509" s="3">
-        <f t="shared" si="1"/>
-        <v>134.64</v>
-      </c>
+      <c r="F509" s="3"/>
       <c r="G509" s="2">
         <v>5.0</v>
       </c>
@@ -15294,10 +13767,7 @@
       <c r="E510" s="3">
         <v>2244.0</v>
       </c>
-      <c r="F510" s="3">
-        <f t="shared" si="1"/>
-        <v>2692.8</v>
-      </c>
+      <c r="F510" s="3"/>
       <c r="G510" s="2">
         <v>2.0</v>
       </c>
@@ -15319,10 +13789,7 @@
       <c r="E511" s="3">
         <v>39996.0</v>
       </c>
-      <c r="F511" s="3">
-        <f t="shared" si="1"/>
-        <v>47995.2</v>
-      </c>
+      <c r="F511" s="3"/>
       <c r="G511" s="2">
         <v>1.0</v>
       </c>
@@ -15344,10 +13811,7 @@
       <c r="E512" s="3">
         <v>3115.0</v>
       </c>
-      <c r="F512" s="3">
-        <f t="shared" si="1"/>
-        <v>3738</v>
-      </c>
+      <c r="F512" s="3"/>
       <c r="G512" s="2">
         <v>1.0</v>
       </c>
@@ -15369,10 +13833,7 @@
       <c r="E513" s="3">
         <v>2922.7</v>
       </c>
-      <c r="F513" s="3">
-        <f t="shared" si="1"/>
-        <v>3507.24</v>
-      </c>
+      <c r="F513" s="3"/>
       <c r="G513" s="2">
         <v>2.0</v>
       </c>
@@ -15394,10 +13855,7 @@
       <c r="E514" s="3">
         <v>1377.2</v>
       </c>
-      <c r="F514" s="3">
-        <f t="shared" si="1"/>
-        <v>1652.64</v>
-      </c>
+      <c r="F514" s="3"/>
       <c r="G514" s="2">
         <v>1.0</v>
       </c>
@@ -15419,10 +13877,7 @@
       <c r="E515" s="3">
         <v>588.225</v>
       </c>
-      <c r="F515" s="3">
-        <f t="shared" si="1"/>
-        <v>705.87</v>
-      </c>
+      <c r="F515" s="3"/>
       <c r="G515" s="2">
         <v>1.0</v>
       </c>
@@ -15444,10 +13899,7 @@
       <c r="E516" s="3">
         <v>1258.477</v>
       </c>
-      <c r="F516" s="3">
-        <f t="shared" si="1"/>
-        <v>1510.1724</v>
-      </c>
+      <c r="F516" s="3"/>
       <c r="G516" s="2">
         <v>2.0</v>
       </c>
@@ -15471,10 +13923,7 @@
       <c r="E517" s="3">
         <v>694.496</v>
       </c>
-      <c r="F517" s="3">
-        <f t="shared" si="1"/>
-        <v>833.3952</v>
-      </c>
+      <c r="F517" s="3"/>
       <c r="G517" s="2">
         <v>1.0</v>
       </c>
@@ -15498,10 +13947,7 @@
       <c r="E518" s="3">
         <v>858.0</v>
       </c>
-      <c r="F518" s="3">
-        <f t="shared" si="1"/>
-        <v>1029.6</v>
-      </c>
+      <c r="F518" s="3"/>
       <c r="G518" s="2">
         <v>7.0</v>
       </c>
@@ -15525,10 +13971,7 @@
       <c r="E519" s="3">
         <v>30.525</v>
       </c>
-      <c r="F519" s="3">
-        <f t="shared" si="1"/>
-        <v>36.63</v>
-      </c>
+      <c r="F519" s="3"/>
       <c r="G519" s="2">
         <v>87.0</v>
       </c>
@@ -15552,10 +13995,7 @@
       <c r="E520" s="3">
         <v>533.5</v>
       </c>
-      <c r="F520" s="3">
-        <f t="shared" si="1"/>
-        <v>640.2</v>
-      </c>
+      <c r="F520" s="3"/>
       <c r="G520" s="2">
         <v>11.0</v>
       </c>
@@ -15579,10 +14019,7 @@
       <c r="E521" s="3">
         <v>33.898</v>
       </c>
-      <c r="F521" s="3">
-        <f t="shared" si="1"/>
-        <v>40.6776</v>
-      </c>
+      <c r="F521" s="3"/>
       <c r="G521" s="2">
         <v>22.0</v>
       </c>
@@ -15606,10 +14043,7 @@
       <c r="E522" s="3">
         <v>129.35</v>
       </c>
-      <c r="F522" s="3">
-        <f t="shared" si="1"/>
-        <v>155.22</v>
-      </c>
+      <c r="F522" s="3"/>
       <c r="G522" s="2">
         <v>5.0</v>
       </c>
@@ -15631,10 +14065,7 @@
       <c r="E523" s="3">
         <v>22.0</v>
       </c>
-      <c r="F523" s="3">
-        <f t="shared" si="1"/>
-        <v>26.4</v>
-      </c>
+      <c r="F523" s="3"/>
       <c r="G523" s="2">
         <v>4.0</v>
       </c>
@@ -15658,10 +14089,7 @@
       <c r="E524" s="3">
         <v>103.235</v>
       </c>
-      <c r="F524" s="3">
-        <f t="shared" si="1"/>
-        <v>123.882</v>
-      </c>
+      <c r="F524" s="3"/>
       <c r="G524" s="2">
         <v>15.0</v>
       </c>
@@ -15685,10 +14113,7 @@
       <c r="E525" s="3">
         <v>182.0</v>
       </c>
-      <c r="F525" s="3">
-        <f t="shared" si="1"/>
-        <v>218.4</v>
-      </c>
+      <c r="F525" s="3"/>
       <c r="G525" s="2">
         <v>3.0</v>
       </c>
@@ -15712,10 +14137,7 @@
       <c r="E526" s="3">
         <v>63.56</v>
       </c>
-      <c r="F526" s="3">
-        <f t="shared" si="1"/>
-        <v>76.272</v>
-      </c>
+      <c r="F526" s="3"/>
       <c r="G526" s="2">
         <v>12.0</v>
       </c>
@@ -15739,10 +14161,7 @@
       <c r="E527" s="3">
         <v>190.68</v>
       </c>
-      <c r="F527" s="3">
-        <f t="shared" si="1"/>
-        <v>228.816</v>
-      </c>
+      <c r="F527" s="3"/>
       <c r="G527" s="2">
         <v>1.0</v>
       </c>
